--- a/DataSet/LoanIQ_DataSet/LIQ_Data_Set.xlsx
+++ b/DataSet/LoanIQ_DataSet/LIQ_Data_Set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_scotia\DataSet\LoanIQ_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C7EC7-C81D-4361-9403-6B1DDA52A490}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70C57B-397C-4239-B60F-99FE9277CEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="31" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27090" windowHeight="12885" tabRatio="870" firstSheet="61" activeTab="67" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMCH02_LenderShareAdjustoment" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10280" uniqueCount="2284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10847" uniqueCount="2284">
   <si>
     <t>rowid</t>
   </si>
@@ -6980,7 +6980,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7089,12 +7089,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -7350,7 +7344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -7674,6 +7668,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8010,7 +8006,9 @@
   </sheetPr>
   <dimension ref="A1:EH11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8214,6 +8212,9 @@
       <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="CH1" s="3"/>
       <c r="CI1" s="3"/>
       <c r="CJ1" s="3"/>
@@ -8294,6 +8295,9 @@
       <c r="S2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
+      <c r="AA2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:138" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -8326,7 +8330,9 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
+      <c r="AA3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="8"/>
@@ -8359,7 +8365,9 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="AA4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
@@ -8525,6 +8533,9 @@
       <c r="Z5" s="15" t="s">
         <v>52</v>
       </c>
+      <c r="AA5" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="EH5" s="12" t="s">
         <v>57</v>
       </c>
@@ -8555,6 +8566,9 @@
       <c r="S6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
+      <c r="AA6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:138" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -8575,6 +8589,9 @@
       <c r="S7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
+      <c r="AA7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:138" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -8603,6 +8620,9 @@
       <c r="S8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
+      <c r="AA8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:138" x14ac:dyDescent="0.2">
       <c r="H9" s="1">
@@ -8689,9 +8709,11 @@
   <sheetPr codeName="Batch_EOD">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8717,7 +8739,7 @@
     <col min="21" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -8793,8 +8815,11 @@
       <c r="Y1" s="43" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA1" s="43" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8867,8 +8892,11 @@
       <c r="Y2" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8943,6 +8971,9 @@
       </c>
       <c r="Y3" s="1" t="s">
         <v>418</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -8965,7 +8996,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9299,7 +9330,9 @@
       <c r="BD1" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="BE1" s="66"/>
+      <c r="BE1" s="66" t="s">
+        <v>2280</v>
+      </c>
       <c r="BF1" s="66"/>
       <c r="BG1" s="66"/>
       <c r="BH1" s="66"/>
@@ -9408,6 +9441,9 @@
       <c r="AR2" s="68"/>
       <c r="AS2" s="68"/>
       <c r="AT2" s="68"/>
+      <c r="BE2" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BZ2" s="23"/>
       <c r="CA2" s="23"/>
       <c r="CK2" s="69"/>
@@ -9426,6 +9462,9 @@
       <c r="G3" s="68"/>
       <c r="AJ3" s="70"/>
       <c r="AU3" s="70"/>
+      <c r="BE3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BZ3" s="23"/>
       <c r="CA3" s="23"/>
       <c r="CJ3" s="9"/>
@@ -9437,6 +9476,9 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>2282</v>
       </c>
       <c r="BJ4" s="8"/>
       <c r="BL4" s="8"/>
@@ -9573,6 +9615,9 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
+      <c r="BE5" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BK5" s="8"/>
     </row>
     <row r="6" spans="1:197" ht="14.25" x14ac:dyDescent="0.2">
@@ -9587,6 +9632,9 @@
       <c r="G6" s="8"/>
       <c r="AJ6" s="70"/>
       <c r="AU6" s="70"/>
+      <c r="BE6" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BK6" s="72"/>
       <c r="BZ6" s="23"/>
       <c r="CA6" s="23"/>
@@ -9621,6 +9669,9 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
+      <c r="BE7" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BK7" s="8"/>
     </row>
     <row r="8" spans="1:197" x14ac:dyDescent="0.2">
@@ -9651,6 +9702,9 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
+      <c r="BE8" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BK8" s="8"/>
     </row>
     <row r="9" spans="1:197" ht="15" x14ac:dyDescent="0.25">
@@ -9816,6 +9870,9 @@
       </c>
       <c r="BD9" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>2282</v>
       </c>
       <c r="BZ9" s="23"/>
       <c r="CA9" s="23"/>
@@ -9837,6 +9894,9 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>2282</v>
       </c>
       <c r="BZ10" s="23"/>
       <c r="CA10" s="23"/>
@@ -9890,7 +9950,9 @@
   </sheetPr>
   <dimension ref="A1:DL9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10034,6 +10096,9 @@
       <c r="J1" s="3" t="s">
         <v>491</v>
       </c>
+      <c r="K1" s="43" t="s">
+        <v>2280</v>
+      </c>
       <c r="AD1" s="2"/>
       <c r="BL1" s="44"/>
       <c r="BM1" s="44"/>
@@ -10102,6 +10167,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:116" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -10117,7 +10185,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:116" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -10133,7 +10203,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -10230,6 +10302,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:116" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -10237,6 +10312,9 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:116" ht="12.75" x14ac:dyDescent="0.2">
@@ -10253,6 +10331,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="DL7" s="1" t="s">
         <v>492</v>
       </c>
@@ -10271,6 +10352,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -10302,6 +10386,9 @@
       </c>
       <c r="J9" s="1" t="s">
         <v>500</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -10322,7 +10409,9 @@
   </sheetPr>
   <dimension ref="A1:DP14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="CA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CE5" sqref="CE5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10666,6 +10755,9 @@
       <c r="CC1" s="76" t="s">
         <v>547</v>
       </c>
+      <c r="CD1" s="76" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10691,6 +10783,9 @@
       <c r="BF2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
+      <c r="CD2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -10718,6 +10813,9 @@
       <c r="BI3" s="45"/>
       <c r="BP3" s="1" t="s">
         <v>548</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
@@ -10776,7 +10874,9 @@
       <c r="CA4" s="8"/>
       <c r="CB4" s="8"/>
       <c r="CC4" s="8"/>
-      <c r="CD4" s="8"/>
+      <c r="CD4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="CE4" s="8"/>
       <c r="CF4" s="8"/>
       <c r="CI4" s="8"/>
@@ -10816,6 +10916,9 @@
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
       <c r="AM5" s="8"/>
+      <c r="CD5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:120" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -10841,6 +10944,9 @@
       <c r="AR6" s="68"/>
       <c r="AS6" s="68"/>
       <c r="BG6" s="68"/>
+      <c r="CD6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -10854,6 +10960,9 @@
       <c r="F7" s="1"/>
       <c r="I7" s="1"/>
       <c r="AM7" s="8"/>
+      <c r="CD7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -10867,6 +10976,9 @@
       <c r="F8" s="1"/>
       <c r="I8" s="1"/>
       <c r="AM8" s="8"/>
+      <c r="CD8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:120" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -11111,6 +11223,9 @@
       </c>
       <c r="CC9" s="1">
         <v>4978.12</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>2282</v>
       </c>
       <c r="DM9" s="1"/>
       <c r="DN9" s="1">
@@ -11212,8 +11327,8 @@
   <dimension ref="A1:FN13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L2" sqref="L2:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11399,7 +11514,9 @@
       <c r="K1" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="L1" s="66"/>
+      <c r="L1" s="66" t="s">
+        <v>2280</v>
+      </c>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
       <c r="O1" s="66"/>
@@ -11505,6 +11622,9 @@
       <c r="G2" s="68"/>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
+      <c r="L2" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BB2" s="23"/>
       <c r="BC2" s="23"/>
       <c r="BM2" s="69"/>
@@ -11522,6 +11642,9 @@
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
       <c r="H3" s="68"/>
+      <c r="L3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="S3" s="70"/>
       <c r="T3" s="70"/>
       <c r="BB3" s="23"/>
@@ -11535,6 +11658,9 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2282</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AN4" s="8"/>
@@ -11655,6 +11781,9 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
+      <c r="L5" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AM5" s="8"/>
     </row>
     <row r="6" spans="1:170" ht="14.25" x14ac:dyDescent="0.2">
@@ -11669,6 +11798,9 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
+      <c r="L6" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="S6" s="70"/>
       <c r="T6" s="70"/>
       <c r="AM6" s="72"/>
@@ -11689,6 +11821,9 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
+      <c r="L7" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AM7" s="8"/>
     </row>
     <row r="8" spans="1:170" x14ac:dyDescent="0.2">
@@ -11703,6 +11838,9 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
+      <c r="L8" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AM8" s="8"/>
     </row>
     <row r="9" spans="1:170" ht="15" x14ac:dyDescent="0.25">
@@ -11738,6 +11876,9 @@
       </c>
       <c r="K9" s="1" t="s">
         <v>572</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>2282</v>
       </c>
       <c r="BB9" s="23"/>
       <c r="BC9" s="23"/>
@@ -11750,6 +11891,9 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>2282</v>
       </c>
       <c r="BB10" s="23"/>
       <c r="BC10" s="23"/>
@@ -11805,7 +11949,9 @@
   </sheetPr>
   <dimension ref="A1:FA21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2:AR9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12068,6 +12214,9 @@
       <c r="AQ1" s="96" t="s">
         <v>605</v>
       </c>
+      <c r="AR1" s="96" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
@@ -12090,6 +12239,9 @@
       <c r="AB2" s="7"/>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
+      <c r="AR2" s="70" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A3" s="70">
@@ -12168,6 +12320,9 @@
       <c r="AQ3" s="7" t="s">
         <v>481</v>
       </c>
+      <c r="AR3" s="70" t="s">
+        <v>2282</v>
+      </c>
       <c r="EP3" s="1" t="s">
         <v>615</v>
       </c>
@@ -12202,7 +12357,9 @@
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
-      <c r="AR4" s="7"/>
+      <c r="AR4" s="70" t="s">
+        <v>2282</v>
+      </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
@@ -12304,6 +12461,9 @@
       <c r="AB5" s="7"/>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
+      <c r="AR5" s="70" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:157" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="70">
@@ -12369,6 +12529,9 @@
       </c>
       <c r="AQ6" s="7" t="s">
         <v>481</v>
+      </c>
+      <c r="AR6" s="70" t="s">
+        <v>2282</v>
       </c>
       <c r="EP6" s="1"/>
       <c r="EQ6" s="1"/>
@@ -12415,6 +12578,9 @@
       <c r="AB7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
+      <c r="AR7" s="70" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A8" s="70">
@@ -12437,6 +12603,9 @@
       <c r="AB8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
+      <c r="AR8" s="70" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:157" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
@@ -12567,6 +12736,9 @@
       </c>
       <c r="AQ9" s="110" t="s">
         <v>481</v>
+      </c>
+      <c r="AR9" s="70" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="11" spans="1:157" ht="14.25" x14ac:dyDescent="0.2">
@@ -12768,9 +12940,11 @@
   <sheetPr codeName="CRE09_LoanDrawDown">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12804,7 +12978,7 @@
     <col min="31" max="31" width="39.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -12898,8 +13072,11 @@
       <c r="AE1" s="85" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL1" s="114" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12920,8 +13097,11 @@
       <c r="R2" s="68"/>
       <c r="S2" s="68"/>
       <c r="X2" s="68"/>
-    </row>
-    <row r="3" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -12947,8 +13127,11 @@
       <c r="Y3" s="68"/>
       <c r="Z3" s="68"/>
       <c r="AA3" s="68"/>
-    </row>
-    <row r="4" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -12960,8 +13143,11 @@
       <c r="Y4" s="91"/>
       <c r="Z4" s="91"/>
       <c r="AA4" s="91"/>
-    </row>
-    <row r="5" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -12987,8 +13173,11 @@
       <c r="Y5" s="68"/>
       <c r="Z5" s="68"/>
       <c r="AA5" s="68"/>
-    </row>
-    <row r="6" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -13078,8 +13267,11 @@
       <c r="AE6" s="1" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -13105,8 +13297,11 @@
       <c r="Y7" s="68"/>
       <c r="Z7" s="68"/>
       <c r="AA7" s="68"/>
-    </row>
-    <row r="8" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -13131,8 +13326,11 @@
       <c r="Y8" s="68"/>
       <c r="Z8" s="68"/>
       <c r="AA8" s="68"/>
-    </row>
-    <row r="9" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>8</v>
       </c>
@@ -13235,6 +13433,9 @@
       </c>
       <c r="AK9" s="1" t="s">
         <v>640</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -13253,9 +13454,11 @@
   <sheetPr codeName="CRE11_LoanDrawDown">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BR20"/>
+  <dimension ref="A1:BS20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BS9" sqref="BS9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13327,7 +13530,7 @@
     <col min="70" max="70" width="18.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -13530,8 +13733,11 @@
       <c r="BR1" s="65" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS1" s="229" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13561,8 +13767,11 @@
       <c r="BN2" s="1"/>
       <c r="BQ2" s="117"/>
       <c r="BR2" s="117"/>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -13587,8 +13796,11 @@
       <c r="BA3" s="68"/>
       <c r="BB3" s="1"/>
       <c r="BR3" s="118"/>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -13649,8 +13861,11 @@
       <c r="BP4" s="91"/>
       <c r="BQ4" s="91"/>
       <c r="BR4" s="91"/>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -13675,8 +13890,11 @@
       <c r="BA5" s="68"/>
       <c r="BB5" s="1"/>
       <c r="BR5" s="68"/>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -13868,8 +14086,11 @@
       <c r="BR6" s="121" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -13894,8 +14115,11 @@
       <c r="BA7" s="68"/>
       <c r="BB7" s="1"/>
       <c r="BR7" s="68"/>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -13919,8 +14143,11 @@
       <c r="BA8" s="68"/>
       <c r="BB8" s="1"/>
       <c r="BR8" s="68"/>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>8</v>
       </c>
@@ -14061,12 +14288,15 @@
         <v>711</v>
       </c>
       <c r="BR9" s="68"/>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS9" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AU10" s="116"/>
       <c r="AV10" s="116"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="L11" s="1"/>
@@ -14090,7 +14320,7 @@
       <c r="BP11" s="1"/>
       <c r="BQ11" s="117"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AQ12" s="1"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8"/>
@@ -14098,11 +14328,11 @@
       <c r="AU12" s="116"/>
       <c r="AV12" s="116"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AU13" s="116"/>
       <c r="AV13" s="116"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="L14" s="1"/>
@@ -14126,13 +14356,13 @@
       <c r="BP14" s="117"/>
       <c r="BQ14" s="117"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="V15" s="71"/>
       <c r="W15" s="71"/>
       <c r="AU15" s="116"/>
       <c r="AV15" s="116"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -14174,11 +14404,11 @@
   <sheetPr codeName="CRED01_DealSetup">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FB14"/>
+  <dimension ref="A1:FC14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="ET1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FA3" sqref="FA3:FB9"/>
+      <pane xSplit="2" topLeftCell="EZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FC2" sqref="FC2:FC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14319,7 +14549,7 @@
     <col min="156" max="156" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:159" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -14794,8 +15024,11 @@
       <c r="FB1" s="226" t="s">
         <v>2278</v>
       </c>
-    </row>
-    <row r="2" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FC1" s="122" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -15177,8 +15410,11 @@
       <c r="FB2" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="3" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FC2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60">
         <v>2</v>
       </c>
@@ -15553,8 +15789,11 @@
       <c r="FB3" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="4" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FC3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -15953,8 +16192,11 @@
       <c r="FB4" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="5" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FC4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60">
         <v>4</v>
       </c>
@@ -16292,8 +16534,11 @@
       <c r="FB5" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="6" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FC5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -16566,8 +16811,11 @@
       <c r="FB6" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="7" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FC6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -16984,8 +17232,11 @@
       <c r="FB7" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="8" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="FC7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -17367,8 +17618,11 @@
       <c r="FB8" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="9" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="FC8" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -17646,8 +17900,11 @@
       <c r="FB9" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="12" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="FC9" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:159" x14ac:dyDescent="0.25">
       <c r="EA12" s="20"/>
       <c r="EI12" s="20"/>
       <c r="EJ12" s="20"/>
@@ -17664,7 +17921,7 @@
       <c r="EV12" s="20"/>
       <c r="EW12" s="20"/>
     </row>
-    <row r="14" spans="1:158" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:159" ht="12.75" x14ac:dyDescent="0.2">
       <c r="DM14" s="1"/>
       <c r="DN14" s="1"/>
       <c r="DO14" s="1"/>
@@ -17707,10 +17964,10 @@
   <dimension ref="A1:AW9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17906,6 +18163,9 @@
       <c r="AV1" s="66" t="s">
         <v>868</v>
       </c>
+      <c r="AW1" s="66" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -18001,6 +18261,9 @@
       </c>
       <c r="AL2" s="73" t="s">
         <v>908</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="3" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -18075,6 +18338,9 @@
       <c r="AI3" s="1" t="s">
         <v>917</v>
       </c>
+      <c r="AW3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -18166,6 +18432,9 @@
       </c>
       <c r="AL4" s="73" t="s">
         <v>908</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="5" spans="1:49" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -18261,7 +18530,9 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AW5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -18332,6 +18603,9 @@
       <c r="AI6" s="1" t="s">
         <v>950</v>
       </c>
+      <c r="AW6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -18471,6 +18745,9 @@
       <c r="AV7" s="132" t="s">
         <v>918</v>
       </c>
+      <c r="AW7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -18567,6 +18844,9 @@
       <c r="AL8" s="73" t="s">
         <v>908</v>
       </c>
+      <c r="AW8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -18648,7 +18928,9 @@
       <c r="AI9" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="AW9" s="1"/>
+      <c r="AW9" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -18668,7 +18950,9 @@
   </sheetPr>
   <dimension ref="A1:BR11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB1" sqref="BB1:BB2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18858,6 +19142,9 @@
       <c r="BA1" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="BB1" s="2" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -18875,16 +19162,25 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
+      <c r="BB2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>111</v>
       </c>
+      <c r="BB3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>112</v>
       </c>
+      <c r="BB4" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="5" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -18893,21 +19189,33 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="BB5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
+      <c r="BB6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>115</v>
       </c>
+      <c r="BB7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>116</v>
       </c>
+      <c r="BB8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -19069,7 +19377,9 @@
       <c r="BA9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB9" s="1"/>
+      <c r="BB9" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
@@ -19110,7 +19420,9 @@
   </sheetPr>
   <dimension ref="A1:EL9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19265,7 +19577,9 @@
       <c r="G1" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -19337,7 +19651,9 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>2282</v>
+      </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="M2" s="8"/>
@@ -19357,6 +19673,9 @@
       <c r="D3" s="99"/>
       <c r="E3" s="99"/>
       <c r="F3" s="99"/>
+      <c r="H3" s="7" t="s">
+        <v>2282</v>
+      </c>
       <c r="I3" s="99"/>
       <c r="J3" s="9"/>
       <c r="K3" s="137"/>
@@ -19394,7 +19713,9 @@
       <c r="E4" s="7"/>
       <c r="F4" s="99"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>2282</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -19516,6 +19837,9 @@
       <c r="D5" s="99"/>
       <c r="E5" s="99"/>
       <c r="F5" s="99"/>
+      <c r="H5" s="7" t="s">
+        <v>2282</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="M5" s="8"/>
@@ -19546,6 +19870,9 @@
       <c r="G6" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>2282</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="M6" s="8"/>
@@ -19561,6 +19888,9 @@
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>2282</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="M7" s="8"/>
@@ -19575,6 +19905,9 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>2282</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -19608,13 +19941,13 @@
   <sheetPr codeName="CRED08_FacilityFeeSetup">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BB9"/>
+  <dimension ref="A1:BC9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19648,7 +19981,7 @@
     <col min="51" max="54" width="25.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
@@ -19811,8 +20144,11 @@
       <c r="BB1" s="43" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BC1" s="43" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -19879,8 +20215,11 @@
       <c r="AM2" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BC2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -19985,8 +20324,11 @@
       <c r="AP3" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -20071,8 +20413,11 @@
       <c r="AM4" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BC4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -20182,8 +20527,11 @@
       <c r="BB5" s="12" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -20289,8 +20637,11 @@
       <c r="AR6" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BC6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -20401,8 +20752,11 @@
       <c r="AR7" s="8" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -20469,8 +20823,11 @@
       <c r="AM8" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC8" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -20590,6 +20947,9 @@
       </c>
       <c r="BA9" s="1" t="s">
         <v>233</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -20608,9 +20968,11 @@
   <sheetPr codeName="CRED08_TickingFee">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="A10:XFD10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20638,7 +21000,7 @@
     <col min="22" max="22" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -20705,16 +21067,22 @@
       <c r="V1" s="2" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="2" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -20727,16 +21095,22 @@
       <c r="E3" s="1" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -20746,8 +21120,11 @@
       <c r="E5" s="1" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -20757,24 +21134,33 @@
       <c r="E6" s="1" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -20841,8 +21227,11 @@
       <c r="V9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>1127</v>
       </c>
@@ -20867,7 +21256,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20977,7 +21366,9 @@
       <c r="W1" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="X1" s="141"/>
+      <c r="X1" s="141" t="s">
+        <v>2280</v>
+      </c>
       <c r="Y1" s="141"/>
       <c r="Z1" s="141"/>
       <c r="AA1" s="141"/>
@@ -21011,6 +21402,9 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
+      <c r="X2" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AI2" s="1" t="s">
         <v>1143</v>
       </c>
@@ -21077,7 +21471,9 @@
       <c r="W3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="X3" s="9"/>
+      <c r="X3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AB3" s="27"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="8"/>
@@ -21136,7 +21532,9 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
+      <c r="X4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -21212,6 +21610,9 @@
       <c r="W5" s="1" t="s">
         <v>1148</v>
       </c>
+      <c r="X5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -21272,6 +21673,9 @@
       </c>
       <c r="W6" s="1" t="s">
         <v>1148</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:142" x14ac:dyDescent="0.2">
@@ -21291,6 +21695,9 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
+      <c r="X7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -21312,6 +21719,9 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
+      <c r="X8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -21355,6 +21765,9 @@
       </c>
       <c r="R9" s="8">
         <v>100</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -21376,8 +21789,8 @@
   <dimension ref="A1:EM9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21572,6 +21985,9 @@
       <c r="T1" s="43" t="s">
         <v>1166</v>
       </c>
+      <c r="U1" s="43" t="s">
+        <v>2280</v>
+      </c>
       <c r="BF1" s="2"/>
       <c r="CN1" s="44"/>
       <c r="CO1" s="44"/>
@@ -21647,6 +22063,9 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
+      <c r="U2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -21701,7 +22120,9 @@
       <c r="T3" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="U3" s="27"/>
+      <c r="U3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="V3" s="27"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="9"/>
@@ -21749,7 +22170,9 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="U4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
@@ -21881,6 +22304,9 @@
       <c r="P5" s="93"/>
       <c r="Q5" s="93"/>
       <c r="R5" s="93"/>
+      <c r="U5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -21926,6 +22352,9 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="1" t="s">
         <v>302</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.2">
@@ -21943,6 +22372,9 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
+      <c r="U7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:143" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -21965,6 +22397,9 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
+      <c r="U8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:143" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
@@ -21993,9 +22428,11 @@
   <sheetPr codeName="CRED11_DrivenCollectAgencyFee">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22006,7 +22443,7 @@
     <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -22025,40 +22462,55 @@
       <c r="F1" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -22077,21 +22529,30 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -22110,9 +22571,11 @@
   <sheetPr codeName="DLCH01_DealChangeTransaction">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22131,7 +22594,7 @@
     <col min="13" max="13" width="21.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -22171,8 +22634,11 @@
       <c r="M1" s="143" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="143" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -22212,16 +22678,22 @@
       <c r="M2" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -22234,29 +22706,41 @@
       <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -22292,6 +22776,9 @@
       </c>
       <c r="M8" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -22312,7 +22799,9 @@
   </sheetPr>
   <dimension ref="A1:EJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22525,6 +23014,9 @@
       <c r="Y1" s="141" t="s">
         <v>1202</v>
       </c>
+      <c r="Z1" s="43" t="s">
+        <v>2280</v>
+      </c>
       <c r="BC1" s="2"/>
       <c r="CK1" s="44"/>
       <c r="CL1" s="44"/>
@@ -22599,6 +23091,9 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
+      <c r="Z2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -22627,6 +23122,9 @@
       <c r="S3" s="27"/>
       <c r="V3" s="8"/>
       <c r="W3" s="9"/>
+      <c r="Z3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AA3" s="27"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="8"/>
@@ -22714,6 +23212,9 @@
       <c r="Y4" s="148" t="s">
         <v>52</v>
       </c>
+      <c r="Z4" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="5" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -22735,6 +23236,9 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
+      <c r="Z5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -22756,6 +23260,9 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
+      <c r="Z6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -22774,6 +23281,9 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
+      <c r="Z7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -22795,6 +23305,9 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
+      <c r="Z8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:140" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
@@ -22819,7 +23332,9 @@
   </sheetPr>
   <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22979,6 +23494,9 @@
       <c r="AG1" s="124" t="s">
         <v>1225</v>
       </c>
+      <c r="AH1" s="122" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="152">
@@ -22987,6 +23505,9 @@
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AH2" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AK2" s="153"/>
       <c r="AL2" s="153"/>
     </row>
@@ -22997,6 +23518,9 @@
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AK3" s="153"/>
       <c r="AL3" s="153"/>
     </row>
@@ -23007,6 +23531,9 @@
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AH4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AK4" s="153"/>
       <c r="AL4" s="153"/>
     </row>
@@ -23017,6 +23544,9 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AH5" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AK5" s="153"/>
       <c r="AL5" s="153"/>
     </row>
@@ -23027,6 +23557,9 @@
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AH6" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AK6" s="153"/>
       <c r="AL6" s="153"/>
       <c r="BG6" s="1"/>
@@ -23039,6 +23572,9 @@
         <v>60</v>
       </c>
       <c r="AE7" s="132"/>
+      <c r="AH7" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AK7" s="153"/>
       <c r="AL7" s="153"/>
       <c r="AN7" s="22"/>
@@ -23052,6 +23588,9 @@
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AH8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="154">
@@ -23152,6 +23691,9 @@
       </c>
       <c r="AG9" s="70" t="s">
         <v>919</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.2">
@@ -23265,9 +23807,11 @@
   <sheetPr codeName="MTAM02_ManualCashflow">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AG9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23301,7 +23845,7 @@
     <col min="32" max="32" width="29.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -23398,64 +23942,88 @@
       <c r="AF1" s="3" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" s="3" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="154">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="154">
         <v>8</v>
       </c>
@@ -23548,6 +24116,9 @@
       </c>
       <c r="AF9" s="1" t="s">
         <v>1262</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -23568,7 +24139,9 @@
   </sheetPr>
   <dimension ref="A1:CL9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23646,7 +24219,9 @@
       <c r="I1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -23741,6 +24316,9 @@
       <c r="F2" s="8"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
+      <c r="J2" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
@@ -23778,6 +24356,9 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
+      <c r="J3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
@@ -23815,6 +24396,9 @@
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
+      <c r="J4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
@@ -23894,6 +24478,9 @@
       <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -23933,6 +24520,9 @@
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
+      <c r="J6" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
@@ -23970,6 +24560,9 @@
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
+      <c r="J7" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
@@ -24007,6 +24600,9 @@
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
+      <c r="J8" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
@@ -24055,8 +24651,8 @@
   <dimension ref="A1:DT11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD2" sqref="AD2:AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24267,6 +24863,9 @@
       <c r="AC1" s="3" t="s">
         <v>1280</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="BU1" s="3"/>
       <c r="BV1" s="3"/>
       <c r="BW1" s="3"/>
@@ -24333,6 +24932,9 @@
       <c r="E2" s="1" t="s">
         <v>2276</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -24361,6 +24963,9 @@
       <c r="R3" s="9"/>
       <c r="S3" s="8"/>
       <c r="T3" s="10"/>
+      <c r="AD3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -24450,7 +25055,9 @@
       <c r="AC4" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AE4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
@@ -24537,6 +25144,9 @@
       <c r="E5" s="1" t="s">
         <v>943</v>
       </c>
+      <c r="AD5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -24551,6 +25161,9 @@
       <c r="E6" s="1" t="s">
         <v>950</v>
       </c>
+      <c r="AD6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -24559,6 +25172,9 @@
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AD7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -24572,6 +25188,9 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>973</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="9" spans="1:124" x14ac:dyDescent="0.2">
@@ -24602,7 +25221,9 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24722,6 +25343,9 @@
       <c r="AC1" s="157" t="s">
         <v>1309</v>
       </c>
+      <c r="AD1" s="157" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -24751,6 +25375,9 @@
       <c r="AC2" s="1" t="s">
         <v>1312</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
@@ -24765,6 +25392,9 @@
       <c r="E3" s="1" t="s">
         <v>917</v>
       </c>
+      <c r="AD3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
@@ -24779,6 +25409,9 @@
       <c r="E4" s="1" t="s">
         <v>936</v>
       </c>
+      <c r="AD4" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
@@ -24793,6 +25426,9 @@
       <c r="E5" s="1" t="s">
         <v>943</v>
       </c>
+      <c r="AD5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
@@ -24822,6 +25458,9 @@
       <c r="AC6" s="1" t="s">
         <v>1317</v>
       </c>
+      <c r="AD6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
@@ -24909,7 +25548,9 @@
       <c r="AC7" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="AD7" s="70"/>
+      <c r="AD7" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AE7" s="158"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -24940,7 +25581,9 @@
       <c r="AC8" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="AD8" s="71"/>
+      <c r="AD8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -24958,9 +25601,11 @@
   <sheetPr codeName="MTAM06B_CycleShareAdjustment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24979,7 +25624,7 @@
     <col min="36" max="36" width="18.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -25088,8 +25733,11 @@
       <c r="AJ1" s="1" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK1" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -25102,8 +25750,11 @@
       <c r="F2" s="1" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
         <v>2</v>
       </c>
@@ -25116,8 +25767,11 @@
       <c r="F3" s="1" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
         <v>3</v>
       </c>
@@ -25130,8 +25784,11 @@
       <c r="F4" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
         <v>4</v>
       </c>
@@ -25144,8 +25801,11 @@
       <c r="F5" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
         <v>5</v>
       </c>
@@ -25160,8 +25820,11 @@
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-    </row>
-    <row r="7" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
         <v>6</v>
       </c>
@@ -25270,8 +25933,11 @@
       <c r="AJ7" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
         <v>7</v>
       </c>
@@ -25283,6 +25949,9 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>973</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -25301,9 +25970,11 @@
   <sheetPr codeName="MTAM07_FacilityShareAdjustment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25332,7 +26003,7 @@
     <col min="27" max="27" width="9.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="160" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="160" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
@@ -25414,8 +26085,11 @@
       <c r="AA1" s="160" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" s="160" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -25425,8 +26099,11 @@
       <c r="C2" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -25508,8 +26185,11 @@
       <c r="AA3" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -25519,8 +26199,11 @@
       <c r="C4" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -25530,8 +26213,11 @@
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -25547,16 +26233,22 @@
       <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -25566,8 +26258,11 @@
       <c r="C8" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>1376</v>
       </c>
@@ -25591,9 +26286,11 @@
   <sheetPr codeName="MTAM08_LoanShareAdjustment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AH8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25632,7 +26329,7 @@
     <col min="33" max="33" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
@@ -25732,8 +26429,11 @@
       <c r="AG1" s="124" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH1" s="122" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="152">
         <v>1</v>
       </c>
@@ -25743,8 +26443,11 @@
       <c r="AA2" s="1" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
         <v>2</v>
       </c>
@@ -25757,8 +26460,11 @@
       <c r="AA3" s="1" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
         <v>3</v>
       </c>
@@ -25768,8 +26474,11 @@
       <c r="AA4" s="1" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
         <v>4</v>
       </c>
@@ -25779,8 +26488,11 @@
       <c r="AA5" s="1" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
         <v>5</v>
       </c>
@@ -25880,16 +26592,22 @@
       <c r="AG6" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
         <v>7</v>
       </c>
@@ -25899,12 +26617,15 @@
       <c r="AA8" s="1" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="K13" s="23"/>
       <c r="M13" s="23"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="K16" s="71"/>
@@ -25946,8 +26667,8 @@
   </sheetPr>
   <dimension ref="A1:CU9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CW14" sqref="CW14"/>
+    <sheetView topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CT1" sqref="CT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28729,7 +29450,9 @@
   </sheetPr>
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28821,6 +29544,9 @@
       <c r="U1" s="167" t="s">
         <v>1598</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -28832,6 +29558,9 @@
       <c r="C2" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="V2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
@@ -28843,6 +29572,9 @@
       <c r="C3" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="V3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
@@ -28854,6 +29586,9 @@
       <c r="C4" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="V4" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
@@ -28865,6 +29600,9 @@
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="V5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
@@ -28876,6 +29614,9 @@
       <c r="C6" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="V6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
@@ -28941,6 +29682,9 @@
       <c r="U7" s="1">
         <v>0.5</v>
       </c>
+      <c r="V7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
@@ -28952,6 +29696,9 @@
       <c r="C8" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="V8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -29016,6 +29763,9 @@
       </c>
       <c r="U9" s="1">
         <v>1</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>2282</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -29037,7 +29787,9 @@
   </sheetPr>
   <dimension ref="A1:CK8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2:AR8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29248,6 +30000,9 @@
       <c r="AQ1" s="2" t="s">
         <v>1643</v>
       </c>
+      <c r="AR1" s="24" t="s">
+        <v>2280</v>
+      </c>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
@@ -29424,6 +30179,9 @@
       <c r="AQ2" s="1" t="s">
         <v>1678</v>
       </c>
+      <c r="AR2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -29532,6 +30290,9 @@
         <v>1670</v>
       </c>
       <c r="AJ3" s="8"/>
+      <c r="AR3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -29654,7 +30415,9 @@
       <c r="AQ4" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="AR4" s="7"/>
+      <c r="AR4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
@@ -29784,6 +30547,9 @@
         <v>1670</v>
       </c>
       <c r="AJ5" s="8"/>
+      <c r="AR5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -29892,6 +30658,9 @@
         <v>1670</v>
       </c>
       <c r="AJ6" s="8"/>
+      <c r="AR6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -30000,6 +30769,9 @@
         <v>1670</v>
       </c>
       <c r="AJ7" s="8"/>
+      <c r="AR7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -30108,6 +30880,9 @@
         <v>1670</v>
       </c>
       <c r="AJ8" s="8"/>
+      <c r="AR8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -30128,8 +30903,8 @@
   <dimension ref="A1:CR21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR2" sqref="AR2:AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30348,7 +31123,9 @@
       <c r="AQ1" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="AR1" s="2"/>
+      <c r="AR1" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
@@ -30532,6 +31309,9 @@
       <c r="AQ2" s="1" t="s">
         <v>1725</v>
       </c>
+      <c r="AR2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -30663,6 +31443,9 @@
       <c r="AQ3" s="1" t="s">
         <v>1728</v>
       </c>
+      <c r="AR3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -30794,7 +31577,9 @@
       <c r="AQ4" s="1" t="s">
         <v>1730</v>
       </c>
-      <c r="AR4" s="7"/>
+      <c r="AR4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="AS4" s="7"/>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
@@ -30952,6 +31737,9 @@
       <c r="AQ5" s="1" t="s">
         <v>1731</v>
       </c>
+      <c r="AR5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -31083,6 +31871,9 @@
       <c r="AQ6" s="1" t="s">
         <v>1732</v>
       </c>
+      <c r="AR6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -31214,6 +32005,9 @@
       <c r="AQ7" s="1" t="s">
         <v>1735</v>
       </c>
+      <c r="AR7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -31345,6 +32139,9 @@
       <c r="AQ8" s="1" t="s">
         <v>1736</v>
       </c>
+      <c r="AR8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -31475,6 +32272,9 @@
       </c>
       <c r="AQ9" s="1" t="s">
         <v>1737</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.2">
@@ -31500,7 +32300,9 @@
   </sheetPr>
   <dimension ref="A1:EX18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31595,7 +32397,9 @@
       <c r="U1" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="V1" s="5"/>
+      <c r="V1" s="5" t="s">
+        <v>2280</v>
+      </c>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -31736,6 +32540,9 @@
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="V2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
@@ -31744,6 +32551,9 @@
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="V3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -31752,6 +32562,9 @@
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="V4" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
@@ -31760,6 +32573,9 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="V5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -31768,6 +32584,9 @@
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="V6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -31776,6 +32595,9 @@
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="V7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -31784,6 +32606,9 @@
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="V8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -31848,6 +32673,9 @@
       </c>
       <c r="U9" s="1" t="s">
         <v>472</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="15" spans="1:154" x14ac:dyDescent="0.2">
@@ -31882,9 +32710,11 @@
   <sheetPr codeName="AMCH06_PricingChangeTransaction">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL9"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1:BM2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31951,7 +32781,7 @@
     <col min="64" max="64" width="34.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -32144,8 +32974,11 @@
       <c r="BL1" s="30" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BM1" s="2" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
@@ -32285,8 +33118,11 @@
       <c r="BH2" s="34"/>
       <c r="BI2" s="34"/>
       <c r="BJ2" s="34"/>
-    </row>
-    <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="BM2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>111</v>
       </c>
@@ -32316,8 +33152,11 @@
       <c r="BH3" s="29"/>
       <c r="BI3" s="29"/>
       <c r="BJ3" s="29"/>
-    </row>
-    <row r="4" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="BM3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>112</v>
       </c>
@@ -32350,8 +33189,11 @@
       <c r="BH4" s="29"/>
       <c r="BI4" s="29"/>
       <c r="BJ4" s="29"/>
-    </row>
-    <row r="5" spans="1:64" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BM4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>113</v>
       </c>
@@ -32467,21 +33309,30 @@
       <c r="BL5" s="36" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="6" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="BM5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="7" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="BM6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="BM7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>116</v>
       </c>
@@ -32618,8 +33469,11 @@
       <c r="BH8" s="34"/>
       <c r="BI8" s="34"/>
       <c r="BJ8" s="34"/>
-    </row>
-    <row r="9" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="BM8" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -32730,6 +33584,9 @@
       </c>
       <c r="BJ9" s="29" t="s">
         <v>241</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -32750,7 +33607,9 @@
   </sheetPr>
   <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2:AQ8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32909,6 +33768,9 @@
       <c r="AP1" s="172" t="s">
         <v>531</v>
       </c>
+      <c r="AQ1" s="170" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -32946,6 +33808,9 @@
       <c r="AP2" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="AQ2" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
@@ -33073,6 +33938,9 @@
       </c>
       <c r="AP3" s="1" t="s">
         <v>479</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="15" x14ac:dyDescent="0.25">
@@ -33106,6 +33974,9 @@
       </c>
       <c r="AP4" s="1" t="s">
         <v>479</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="15" x14ac:dyDescent="0.25">
@@ -33150,6 +34021,9 @@
       <c r="AP5" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="AQ5" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:44" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
@@ -33271,6 +34145,9 @@
       </c>
       <c r="AP6" s="1" t="s">
         <v>479</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="15" x14ac:dyDescent="0.25">
@@ -33299,6 +34176,9 @@
       <c r="T7" s="68"/>
       <c r="U7" s="68"/>
       <c r="V7" s="68"/>
+      <c r="AQ7" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
@@ -33340,7 +34220,9 @@
       <c r="AP8" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AQ8" s="1"/>
+      <c r="AQ8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AR8" s="1"/>
     </row>
     <row r="9" spans="1:44" ht="15" x14ac:dyDescent="0.25">
@@ -33417,9 +34299,11 @@
   <sheetPr codeName="SERV01_47_FlexPISchedule">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BL8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL2" sqref="BL2:BL8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -33476,7 +34360,7 @@
     <col min="63" max="63" width="24.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -33666,8 +34550,11 @@
       <c r="BK1" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="BL1" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -33697,8 +34584,11 @@
       <c r="AV2" s="1" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="BL2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
         <v>2</v>
       </c>
@@ -33722,8 +34612,11 @@
       <c r="AV3" s="1" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="BL3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
         <v>3</v>
       </c>
@@ -33753,8 +34646,11 @@
       <c r="AV4" s="1" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="BL4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
         <v>4</v>
       </c>
@@ -33778,8 +34674,11 @@
       <c r="AV5" s="1" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="BL5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
         <v>5</v>
       </c>
@@ -33803,8 +34702,11 @@
       <c r="AV6" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="BL6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
         <v>6</v>
       </c>
@@ -33994,8 +34896,11 @@
       <c r="BK7" s="1" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="BL7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
         <v>7</v>
       </c>
@@ -34022,6 +34927,9 @@
       </c>
       <c r="AV8" s="1" t="s">
         <v>1579</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -34040,9 +34948,11 @@
   <sheetPr codeName="SERV01_LoanDrawdown">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AT8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="AO1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2:AT8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -34080,7 +34990,7 @@
     <col min="45" max="45" width="16.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -34216,8 +35126,11 @@
       <c r="AS1" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT1" s="230" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -34353,8 +35266,11 @@
       <c r="AS2" s="94" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT2" s="94" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -34372,8 +35288,11 @@
         <v>1809</v>
       </c>
       <c r="AM3" s="118"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT3" s="94" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -34426,8 +35345,11 @@
       <c r="AO4" s="91"/>
       <c r="AP4" s="91"/>
       <c r="AR4" s="1"/>
-    </row>
-    <row r="5" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT4" s="94" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="94">
         <v>4</v>
       </c>
@@ -34563,8 +35485,11 @@
       <c r="AS5" s="94" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT5" s="94" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -34581,8 +35506,11 @@
       <c r="AF6" s="1" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT6" s="94" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -34590,8 +35518,11 @@
         <v>60</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT7" s="94" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -34726,6 +35657,9 @@
       </c>
       <c r="AS8" s="94" t="s">
         <v>52</v>
+      </c>
+      <c r="AT8" s="94" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -34744,9 +35678,11 @@
   <sheetPr codeName="SERV01_TermLoanDrawdowninUSD">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BI25"/>
+  <dimension ref="A1:BJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -34807,7 +35743,7 @@
     <col min="58" max="59" width="20.5703125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
@@ -34985,8 +35921,11 @@
       <c r="BG1" s="122" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ1" s="122" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -35115,8 +36054,11 @@
       <c r="BG2" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -35191,8 +36133,11 @@
       <c r="BE3" s="68"/>
       <c r="BF3" s="68"/>
       <c r="BG3" s="118"/>
-    </row>
-    <row r="4" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -35233,8 +36178,11 @@
       <c r="BE4" s="68"/>
       <c r="BF4" s="68"/>
       <c r="BG4" s="68"/>
-    </row>
-    <row r="5" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -35288,8 +36236,11 @@
       <c r="BE5" s="68"/>
       <c r="BF5" s="68"/>
       <c r="BG5" s="68"/>
-    </row>
-    <row r="6" spans="1:61" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BJ5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -35468,8 +36419,11 @@
       <c r="BI6" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="7" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -35523,8 +36477,11 @@
       <c r="BE7" s="68"/>
       <c r="BF7" s="68"/>
       <c r="BG7" s="68"/>
-    </row>
-    <row r="8" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -35577,8 +36534,11 @@
       <c r="BE8" s="68"/>
       <c r="BF8" s="68"/>
       <c r="BG8" s="68"/>
-    </row>
-    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ8" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="68"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
@@ -35624,7 +36584,7 @@
       <c r="BF9" s="68"/>
       <c r="BG9" s="68"/>
     </row>
-    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -35671,7 +36631,7 @@
       <c r="BF10" s="68"/>
       <c r="BG10" s="68"/>
     </row>
-    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="68"/>
       <c r="D11" s="175"/>
       <c r="E11" s="68"/>
@@ -35704,7 +36664,7 @@
       <c r="BE11" s="68"/>
       <c r="BG11" s="117"/>
     </row>
-    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
@@ -35753,7 +36713,7 @@
       <c r="BF12" s="68"/>
       <c r="BG12" s="68"/>
     </row>
-    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
@@ -35800,7 +36760,7 @@
       <c r="BF13" s="68"/>
       <c r="BG13" s="68"/>
     </row>
-    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -35834,7 +36794,7 @@
       <c r="BF14" s="117"/>
       <c r="BG14" s="117"/>
     </row>
-    <row r="15" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -35883,7 +36843,7 @@
       <c r="BF15" s="68"/>
       <c r="BG15" s="68"/>
     </row>
-    <row r="16" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -36365,11 +37325,11 @@
   <sheetPr codeName="SERV05_SBLCIssuance">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD2" sqref="AD2:AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36403,7 +37363,7 @@
     <col min="29" max="29" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -36491,8 +37451,11 @@
       <c r="AC1" s="91" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD1" s="43" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -36522,8 +37485,11 @@
       </c>
       <c r="P2" s="8"/>
       <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -36606,8 +37572,11 @@
       <c r="AC3" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -36690,8 +37659,11 @@
       <c r="AC4" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -36718,8 +37690,11 @@
         <v>943</v>
       </c>
       <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -36748,8 +37723,11 @@
         <v>950</v>
       </c>
       <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -36837,8 +37815,11 @@
       <c r="AC7" s="94" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -36867,8 +37848,11 @@
         <v>973</v>
       </c>
       <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>1290</v>
       </c>
@@ -36881,8 +37865,11 @@
       <c r="O9" s="1" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
         <v>1845</v>
       </c>
@@ -36958,8 +37945,11 @@
       <c r="AA10" s="1" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N13" s="1" t="s">
         <v>1851</v>
       </c>
@@ -36983,8 +37973,8 @@
   <dimension ref="A1:DF25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP2" sqref="AP2:AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37175,7 +38165,9 @@
       <c r="AO1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="2"/>
+      <c r="AP1" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
@@ -37292,7 +38284,9 @@
       <c r="AL2" s="8"/>
       <c r="AN2" s="8"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="8"/>
+      <c r="AP2" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="27"/>
       <c r="AS2" s="27"/>
@@ -37353,7 +38347,9 @@
       <c r="AL3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="9"/>
-      <c r="AP3" s="8"/>
+      <c r="AP3" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="27"/>
       <c r="AS3" s="27"/>
@@ -37414,7 +38410,9 @@
       <c r="AL4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="9"/>
-      <c r="AP4" s="8"/>
+      <c r="AP4" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="27"/>
       <c r="AS4" s="27"/>
@@ -37495,7 +38493,9 @@
       <c r="AL5" s="8"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="9"/>
-      <c r="AP5" s="8"/>
+      <c r="AP5" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="27"/>
       <c r="AS5" s="27"/>
@@ -37556,7 +38556,9 @@
       <c r="AL6" s="8"/>
       <c r="AN6" s="8"/>
       <c r="AO6" s="9"/>
-      <c r="AP6" s="8"/>
+      <c r="AP6" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="27"/>
       <c r="AS6" s="27"/>
@@ -37693,7 +38695,9 @@
       <c r="AO7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP7" s="8"/>
+      <c r="AP7" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="27"/>
       <c r="AS7" s="27"/>
@@ -37757,7 +38761,9 @@
       <c r="AL8" s="8"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="9"/>
-      <c r="AP8" s="8"/>
+      <c r="AP8" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="27"/>
       <c r="AS8" s="27"/>
@@ -37797,9 +38803,11 @@
   <sheetPr codeName="SERV08_ComprehensiveRepricing">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BG20"/>
+  <dimension ref="A1:BH20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -37839,7 +38847,7 @@
     <col min="38" max="38" width="17.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="96" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" s="96" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
@@ -37948,8 +38956,11 @@
       <c r="AJ1" s="96" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH1" s="96" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
         <v>1</v>
       </c>
@@ -37984,8 +38995,11 @@
         <v>2276</v>
       </c>
       <c r="AD2" s="7"/>
-    </row>
-    <row r="3" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="70">
         <v>2</v>
       </c>
@@ -38130,8 +39144,11 @@
       <c r="AX3" s="1" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="70">
         <v>3</v>
       </c>
@@ -38146,8 +39163,11 @@
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="70">
         <v>4</v>
       </c>
@@ -38182,8 +39202,11 @@
         <v>1883</v>
       </c>
       <c r="AD5" s="7"/>
-    </row>
-    <row r="6" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="70">
         <v>5</v>
       </c>
@@ -38319,8 +39342,11 @@
       <c r="BG6" s="1" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="70">
         <v>6</v>
       </c>
@@ -38347,8 +39373,11 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="70">
         <v>7</v>
       </c>
@@ -38381,18 +39410,21 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AC11" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="L12" s="1" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="M15" s="71"/>
     </row>
     <row r="18" spans="31:31" x14ac:dyDescent="0.2">
@@ -38422,7 +39454,9 @@
   </sheetPr>
   <dimension ref="A1:FJ20"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2:BD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38729,6 +39763,9 @@
       <c r="BC1" s="64" t="s">
         <v>457</v>
       </c>
+      <c r="BD1" s="43" t="s">
+        <v>2280</v>
+      </c>
       <c r="BX1" s="2"/>
       <c r="DF1" s="44"/>
       <c r="DG1" s="44"/>
@@ -38875,6 +39912,9 @@
       <c r="AP2" s="1" t="s">
         <v>708</v>
       </c>
+      <c r="BD2" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="ET2" s="1" t="s">
         <v>1896</v>
       </c>
@@ -38903,6 +39943,9 @@
       <c r="AO3" s="7"/>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="10"/>
+      <c r="BD3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -38972,6 +40015,9 @@
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
+      <c r="BD4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BH4" s="8"/>
@@ -39210,6 +40256,9 @@
       <c r="BC5" s="45" t="s">
         <v>708</v>
       </c>
+      <c r="BD5" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="FH5" s="45" t="s">
         <v>1901</v>
       </c>
@@ -39346,6 +40395,9 @@
       </c>
       <c r="AP6" s="1" t="s">
         <v>708</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:166" x14ac:dyDescent="0.25">
@@ -39372,6 +40424,9 @@
       </c>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
+      <c r="BD7" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="ES7" s="1" t="s">
         <v>492</v>
       </c>
@@ -39395,6 +40450,9 @@
       <c r="AF8" s="6"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
+      <c r="BD8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="AF9" s="189"/>
@@ -39722,9 +40780,11 @@
   <sheetPr codeName="SERV12_LoanSplit">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39753,7 +40813,7 @@
     <col min="35" max="35" width="27.5703125" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="96" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="96" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
@@ -39859,8 +40919,11 @@
       <c r="AI1" s="96" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="96" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="193" t="s">
         <v>26</v>
       </c>
@@ -39874,8 +40937,11 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="192" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="193" t="s">
         <v>111</v>
       </c>
@@ -39889,8 +40955,11 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="192" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="193" t="s">
         <v>112</v>
       </c>
@@ -39904,8 +40973,11 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="192" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="193" t="s">
         <v>113</v>
       </c>
@@ -39919,8 +40991,11 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="192" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="193" t="s">
         <v>114</v>
       </c>
@@ -39934,8 +41009,11 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="192" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="193" t="s">
         <v>115</v>
       </c>
@@ -39949,8 +41027,11 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="192" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="193" t="s">
         <v>116</v>
       </c>
@@ -39964,8 +41045,11 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="192" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>117</v>
       </c>
@@ -40062,16 +41146,19 @@
       <c r="AI9" s="70" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="192" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="M15" s="71"/>
     </row>
   </sheetData>
@@ -40092,7 +41179,9 @@
   </sheetPr>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ8" sqref="AQ8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40264,6 +41353,9 @@
       <c r="AP1" s="66" t="s">
         <v>457</v>
       </c>
+      <c r="AQ1" s="66" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -40351,6 +41443,9 @@
       <c r="AO2" s="7"/>
       <c r="AP2" s="1" t="s">
         <v>708</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -40371,6 +41466,9 @@
       <c r="AM3" s="8"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
+      <c r="AQ3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -40416,6 +41514,9 @@
       </c>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
+      <c r="AQ4" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -40430,6 +41531,9 @@
       <c r="AF5" s="1"/>
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
+      <c r="AQ5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -40557,6 +41661,9 @@
       </c>
       <c r="AP6" s="1" t="s">
         <v>708</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -40586,6 +41693,9 @@
       </c>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
+      <c r="AQ7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="T8" s="1" t="s">
@@ -40594,6 +41704,9 @@
       <c r="AF8" s="1"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
+      <c r="AQ8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="8"/>
@@ -40762,7 +41875,9 @@
   </sheetPr>
   <dimension ref="A1:EN9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -40929,6 +42044,9 @@
       <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="T1" s="43" t="s">
         <v>259</v>
       </c>
@@ -40999,7 +42117,9 @@
       <c r="C2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -41039,7 +42159,9 @@
       <c r="J3" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="49"/>
+      <c r="K3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L3" s="49"/>
       <c r="M3" s="50"/>
       <c r="N3" s="51"/>
@@ -41084,7 +42206,9 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -41205,7 +42329,9 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -41229,7 +42355,9 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -41247,7 +42375,9 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -41268,7 +42398,9 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -41300,8 +42432,8 @@
   <dimension ref="A1:EJ11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q2" sqref="Q2:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41488,7 +42620,9 @@
       <c r="P1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>2280</v>
+      </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -41571,6 +42705,9 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
+      <c r="Q2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -41596,7 +42733,9 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
       <c r="V3" s="8"/>
@@ -41661,7 +42800,9 @@
       <c r="P4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -41783,6 +42924,9 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
+      <c r="Q5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -41806,6 +42950,9 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
+      <c r="Q6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -41824,6 +42971,9 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
+      <c r="Q7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -41847,6 +42997,9 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
+      <c r="Q8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:140" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
@@ -41880,8 +43033,8 @@
   <dimension ref="A1:EO9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH2" sqref="BH2:BH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42194,6 +43347,9 @@
       <c r="BG1" s="2" t="s">
         <v>1751</v>
       </c>
+      <c r="BH1" s="43" t="s">
+        <v>2280</v>
+      </c>
       <c r="CJ1" s="44"/>
       <c r="CK1" s="44"/>
       <c r="CL1" s="44"/>
@@ -42348,6 +43504,9 @@
       <c r="AM2" s="69" t="s">
         <v>1955</v>
       </c>
+      <c r="BH2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -42379,6 +43538,9 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="10"/>
+      <c r="BH3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -42455,6 +43617,9 @@
       <c r="AX4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
+      <c r="BH4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="BI4" s="8"/>
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
@@ -42548,6 +43713,9 @@
       <c r="AI5" s="1" t="s">
         <v>944</v>
       </c>
+      <c r="BH5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -42574,6 +43742,9 @@
       <c r="U6" s="1" t="s">
         <v>950</v>
       </c>
+      <c r="BH6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:145" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -42666,6 +43837,9 @@
         <v>1955</v>
       </c>
       <c r="AM7" s="69"/>
+      <c r="BH7" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="EJ7" s="1" t="s">
         <v>1960</v>
       </c>
@@ -42786,6 +43960,9 @@
       <c r="AM8" s="69" t="s">
         <v>1955</v>
       </c>
+      <c r="BH8" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -42913,6 +44090,9 @@
       </c>
       <c r="BG9" s="22" t="s">
         <v>476</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -42931,9 +44111,11 @@
   <sheetPr codeName="SERV20_UnschedPrincipalPayments">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN8"/>
+  <dimension ref="A1:BO8"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO3" sqref="BO3:BO8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42975,7 +44157,7 @@
     <col min="56" max="56" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -43141,8 +44323,11 @@
       <c r="BD1" s="68" t="s">
         <v>1981</v>
       </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -43182,8 +44367,11 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="117"/>
       <c r="AU2" s="68"/>
-    </row>
-    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BO2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -43379,8 +44567,11 @@
       <c r="BN3" s="1">
         <v>14.94</v>
       </c>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -43420,8 +44611,11 @@
       <c r="AR4" s="91"/>
       <c r="AS4" s="91"/>
       <c r="AT4" s="91"/>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -43440,8 +44634,11 @@
       <c r="Q5" s="1" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -43488,16 +44685,22 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="117"/>
       <c r="AU6" s="68"/>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -43506,6 +44709,9 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>243</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -43524,9 +44730,11 @@
   <sheetPr codeName="SERV21_InterestPayments">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CB15"/>
+  <dimension ref="A1:CC15"/>
   <sheetViews>
-    <sheetView topLeftCell="BH1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CC2" sqref="CC2:CC8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43596,7 +44804,7 @@
     <col min="73" max="73" width="15.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
@@ -43816,8 +45024,11 @@
       <c r="BU1" s="209" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="2" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CC1" s="122" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -43977,8 +45188,11 @@
       <c r="BY2" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="CC2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -44188,8 +45402,11 @@
       <c r="BU3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="CC3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -44233,8 +45450,11 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="BP4" s="68"/>
-    </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="CC4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -44274,8 +45494,11 @@
       <c r="CB5" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="CC5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -44459,8 +45682,11 @@
       <c r="BP6" s="68" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="CC6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -44470,8 +45696,11 @@
       <c r="C7" s="1" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="CC7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -44623,8 +45852,11 @@
       <c r="BZ8" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="CC8" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="O13" s="176"/>
       <c r="P13" s="176"/>
       <c r="R13" s="210"/>
@@ -44633,14 +45865,14 @@
       <c r="U13" s="176"/>
       <c r="V13" s="176"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="O14" s="176"/>
       <c r="P14" s="176"/>
       <c r="R14" s="210"/>
       <c r="S14" s="210"/>
       <c r="T14" s="210"/>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="P15" s="176"/>
       <c r="R15" s="210"/>
       <c r="S15" s="210"/>
@@ -44664,7 +45896,9 @@
   </sheetPr>
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2:AQ9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44825,6 +46059,9 @@
       <c r="AP1" s="1" t="s">
         <v>464</v>
       </c>
+      <c r="AQ1" s="230" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -44948,6 +46185,9 @@
       </c>
       <c r="AP2" s="68" t="s">
         <v>52</v>
+      </c>
+      <c r="AQ2" s="68" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="3" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -44997,6 +46237,9 @@
       <c r="AM3" s="68"/>
       <c r="AN3" s="68"/>
       <c r="AO3" s="68"/>
+      <c r="AQ3" s="68" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
@@ -45030,6 +46273,9 @@
       <c r="AM4" s="68"/>
       <c r="AN4" s="68"/>
       <c r="AO4" s="68"/>
+      <c r="AQ4" s="68" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="5" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="94">
@@ -45157,6 +46403,9 @@
       </c>
       <c r="AP5" s="94" t="s">
         <v>52</v>
+      </c>
+      <c r="AQ5" s="68" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -45208,6 +46457,9 @@
       <c r="AM6" s="68"/>
       <c r="AN6" s="68"/>
       <c r="AO6" s="68"/>
+      <c r="AQ6" s="68" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
@@ -45255,6 +46507,9 @@
       <c r="AM7" s="68"/>
       <c r="AN7" s="68"/>
       <c r="AO7" s="68"/>
+      <c r="AQ7" s="68" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
@@ -45303,6 +46558,9 @@
       <c r="AM8" s="68"/>
       <c r="AN8" s="68"/>
       <c r="AO8" s="68"/>
+      <c r="AQ8" s="68" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="9" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -45316,6 +46574,9 @@
       </c>
       <c r="AF9" s="211" t="s">
         <v>2052</v>
+      </c>
+      <c r="AQ9" s="68" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
@@ -45350,9 +46611,11 @@
   <sheetPr codeName="SERV23_LoanPaperClip">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2:AZ8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45383,7 +46646,7 @@
     <col min="36" max="36" width="16.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -45492,8 +46755,11 @@
       <c r="AJ1" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -45554,8 +46820,11 @@
       <c r="AY2" s="1" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -45592,8 +46861,11 @@
       <c r="AV3" s="1" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -45636,8 +46908,11 @@
       <c r="AS4" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -45653,8 +46928,11 @@
       <c r="AT5" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -45688,8 +46966,11 @@
       <c r="AU6" s="1" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -45798,8 +47079,11 @@
       <c r="AJ7" s="68" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -45814,6 +47098,9 @@
       </c>
       <c r="AR8" s="1" t="s">
         <v>973</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -45834,7 +47121,9 @@
   </sheetPr>
   <dimension ref="A1:ER49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2:AM8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -45990,6 +47279,9 @@
       <c r="AL1" s="213" t="s">
         <v>605</v>
       </c>
+      <c r="AM1" s="212" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="2" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
@@ -46026,7 +47318,9 @@
       <c r="AK2" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="AM2" s="70"/>
+      <c r="AM2" s="70" t="s">
+        <v>2282</v>
+      </c>
       <c r="AN2" s="70"/>
       <c r="AO2" s="70"/>
       <c r="AP2" s="70"/>
@@ -46249,7 +47543,9 @@
       <c r="AL3" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AM3" s="7"/>
+      <c r="AM3" s="70" t="s">
+        <v>2282</v>
+      </c>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="99"/>
@@ -46386,7 +47682,9 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
-      <c r="AM4" s="7"/>
+      <c r="AM4" s="70" t="s">
+        <v>2282</v>
+      </c>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
@@ -46533,7 +47831,9 @@
       <c r="AK5" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="AM5" s="70"/>
+      <c r="AM5" s="70" t="s">
+        <v>2282</v>
+      </c>
       <c r="AN5" s="70"/>
       <c r="AO5" s="70"/>
       <c r="AP5" s="70"/>
@@ -46716,7 +48016,9 @@
       <c r="AL6" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AM6" s="70"/>
+      <c r="AM6" s="70" t="s">
+        <v>2282</v>
+      </c>
       <c r="AN6" s="70"/>
       <c r="AO6" s="70"/>
       <c r="AP6" s="70"/>
@@ -46854,7 +48156,9 @@
       <c r="AH7" s="70"/>
       <c r="AI7" s="70"/>
       <c r="AJ7" s="70"/>
-      <c r="AM7" s="70"/>
+      <c r="AM7" s="70" t="s">
+        <v>2282</v>
+      </c>
       <c r="AN7" s="70"/>
       <c r="AO7" s="70"/>
       <c r="AP7" s="70"/>
@@ -46994,7 +48298,9 @@
       <c r="AH8" s="70"/>
       <c r="AI8" s="70"/>
       <c r="AJ8" s="70"/>
-      <c r="AM8" s="70"/>
+      <c r="AM8" s="70" t="s">
+        <v>2282</v>
+      </c>
       <c r="AN8" s="70"/>
       <c r="AO8" s="70"/>
       <c r="AP8" s="70"/>
@@ -47345,8 +48651,8 @@
   <dimension ref="A1:EJ8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -47527,7 +48833,9 @@
       <c r="N1" s="66" t="s">
         <v>520</v>
       </c>
-      <c r="O1" s="203"/>
+      <c r="O1" s="203" t="s">
+        <v>2280</v>
+      </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -47632,7 +48940,9 @@
       <c r="N2" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -47656,7 +48966,9 @@
       <c r="N3" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="O3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="27"/>
@@ -47716,6 +49028,9 @@
       </c>
       <c r="N4" s="1" t="s">
         <v>1394</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>2282</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -47839,7 +49154,9 @@
       <c r="N5" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="O5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -47862,7 +49179,9 @@
       <c r="N6" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -47880,7 +49199,9 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -47903,7 +49224,9 @@
       <c r="N8" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="O8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>2282</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -47921,9 +49244,11 @@
   <sheetPr codeName="SERV25_ReleaseCashflows">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -47941,7 +49266,7 @@
     <col min="14" max="14" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="64" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="64" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -47984,8 +49309,11 @@
       <c r="N1" s="64" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="64" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -48028,53 +49356,74 @@
       <c r="N2" s="1" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -48095,7 +49444,9 @@
   </sheetPr>
   <dimension ref="A1:EJ8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -48245,7 +49596,9 @@
       <c r="D1" s="141" t="s">
         <v>2095</v>
       </c>
-      <c r="E1" s="141"/>
+      <c r="E1" s="141" t="s">
+        <v>2280</v>
+      </c>
       <c r="F1" s="141"/>
       <c r="G1" s="141"/>
       <c r="H1" s="141"/>
@@ -48330,7 +49683,9 @@
       <c r="C2" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="I2" s="8"/>
@@ -48351,7 +49706,9 @@
       <c r="C3" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="F3" s="31"/>
       <c r="G3" s="8"/>
       <c r="H3" s="31"/>
@@ -48388,6 +49745,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>2096</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>2282</v>
       </c>
       <c r="J4" s="146"/>
       <c r="K4" s="146"/>
@@ -48501,7 +49861,9 @@
       <c r="C5" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="I5" s="8"/>
@@ -48522,7 +49884,9 @@
       <c r="C6" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="I6" s="8"/>
@@ -48543,7 +49907,9 @@
       <c r="C7" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="I7" s="8"/>
@@ -48564,7 +49930,9 @@
       <c r="C8" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="I8" s="8"/>
@@ -48591,9 +49959,11 @@
   <sheetPr codeName="AMCH11_AddFacility">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AX8"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0"/>
+    <sheetView topLeftCell="AM1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="AU23" sqref="AU23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -48647,7 +50017,7 @@
     <col min="49" max="49" width="18.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -48795,8 +50165,11 @@
       <c r="AW1" s="30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX1" s="2" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -48809,8 +50182,11 @@
       <c r="AJ2" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -48823,8 +50199,11 @@
       <c r="AJ3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -48837,8 +50216,11 @@
       <c r="AJ4" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:49" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -48986,8 +50368,11 @@
       <c r="AW5" s="36" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -49129,16 +50514,22 @@
       <c r="AU6" s="54" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -49150,6 +50541,9 @@
       </c>
       <c r="AJ8" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -49168,11 +50562,11 @@
   <sheetPr codeName="SERV29_PaymentFees">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BT13"/>
+  <dimension ref="A1:BU13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="BT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BU2" sqref="BU2:BU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49242,7 +50636,7 @@
     <col min="72" max="72" width="23.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
@@ -49459,8 +50853,11 @@
       <c r="BT1" s="122" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BU1" s="122" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -49641,8 +51038,11 @@
       <c r="BP2" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU2" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -49850,8 +51250,11 @@
       <c r="BT3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU3" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -49905,8 +51308,11 @@
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
       <c r="BL4" s="8"/>
-    </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU4" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -49936,8 +51342,11 @@
       <c r="AK5" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU5" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -50136,8 +51545,11 @@
       <c r="BT6" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU6" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -50148,8 +51560,11 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="AK7" s="8"/>
-    </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU7" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -50330,8 +51745,11 @@
       <c r="BP8" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU8" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -50515,8 +51933,11 @@
       <c r="BL9" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU9" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -50700,8 +52121,11 @@
       <c r="BL10" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU10" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C11" s="71"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -50710,7 +52134,7 @@
       <c r="BJ11" s="9"/>
       <c r="BK11" s="69"/>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="AS12" s="73"/>
       <c r="AT12" s="73"/>
       <c r="AV12" s="71"/>
@@ -50720,7 +52144,7 @@
       <c r="AZ12" s="71"/>
       <c r="BA12" s="71"/>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="AS13" s="73"/>
       <c r="AT13" s="73"/>
       <c r="AV13" s="71"/>
@@ -50746,9 +52170,11 @@
   <sheetPr codeName="SERV30_AdminFeePayment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -50772,7 +52198,7 @@
     <col min="18" max="18" width="20.7109375" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
@@ -50827,8 +52253,11 @@
       <c r="R1" s="124" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="122" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -50842,8 +52271,11 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -50898,8 +52330,11 @@
       <c r="R3" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -50917,8 +52352,11 @@
       <c r="O4" s="8"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -50936,8 +52374,11 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -50992,8 +52433,11 @@
       <c r="R6" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -51008,8 +52452,11 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -51027,8 +52474,11 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q10" s="68"/>
     </row>
   </sheetData>
@@ -51049,7 +52499,9 @@
   </sheetPr>
   <dimension ref="A1:CN14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -51176,7 +52628,9 @@
       <c r="V1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -51275,7 +52729,9 @@
       <c r="S2" s="8"/>
       <c r="T2" s="7"/>
       <c r="U2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="W2" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
@@ -51357,7 +52813,9 @@
       <c r="V3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="8"/>
+      <c r="W3" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -51400,7 +52858,9 @@
       <c r="S4" s="8"/>
       <c r="T4" s="7"/>
       <c r="U4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="W4" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -51468,7 +52928,9 @@
       <c r="S5" s="8"/>
       <c r="T5" s="7"/>
       <c r="U5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="W5" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -51513,7 +52975,9 @@
       <c r="S6" s="8"/>
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="W6" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -51552,7 +53016,9 @@
       <c r="S7" s="8"/>
       <c r="T7" s="7"/>
       <c r="U7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="W7" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -51595,7 +53061,9 @@
       <c r="S8" s="8"/>
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="W8" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -51653,7 +53121,9 @@
   </sheetPr>
   <dimension ref="A1:BQ16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -51793,7 +53263,9 @@
       <c r="X1" s="5" t="s">
         <v>2180</v>
       </c>
-      <c r="Y1" s="3"/>
+      <c r="Y1" s="3" t="s">
+        <v>2280</v>
+      </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
@@ -51868,6 +53340,9 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
+      <c r="Y2" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -51898,6 +53373,9 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
+      <c r="Y3" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -51928,7 +53406,9 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
+      <c r="Y4" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="Z4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -51989,6 +53469,9 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
+      <c r="Y5" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -52019,6 +53502,9 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
+      <c r="Y6" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -52049,6 +53535,9 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
+      <c r="Y7" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="8" spans="1:69" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
@@ -52122,6 +53611,9 @@
       </c>
       <c r="X8" s="15" t="s">
         <v>2182</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
@@ -52151,7 +53643,9 @@
   </sheetPr>
   <dimension ref="A1:CY14"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AH8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -52313,7 +53807,9 @@
       <c r="AG1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AH1" s="2"/>
+      <c r="AH1" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
@@ -52424,7 +53920,9 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
-      <c r="AH2" s="8"/>
+      <c r="AH2" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
@@ -52539,7 +54037,9 @@
       <c r="AG3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH3" s="8"/>
+      <c r="AH3" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
@@ -52592,7 +54092,9 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
-      <c r="AH4" s="8"/>
+      <c r="AH4" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
@@ -52671,7 +54173,9 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="8"/>
-      <c r="AH5" s="8"/>
+      <c r="AH5" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
@@ -52728,7 +54232,9 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
-      <c r="AH6" s="8"/>
+      <c r="AH6" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
@@ -52779,7 +54285,9 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="8"/>
-      <c r="AH7" s="8"/>
+      <c r="AH7" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
@@ -52832,7 +54340,9 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="8"/>
-      <c r="AH8" s="8"/>
+      <c r="AH8" s="8" t="s">
+        <v>2282</v>
+      </c>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
@@ -52876,9 +54386,11 @@
   <sheetPr codeName="SYND02_Primary_Allocation">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -52916,7 +54428,7 @@
     <col min="32" max="32" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -53011,8 +54523,11 @@
       <c r="AF1" s="216" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" s="216" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -53025,8 +54540,11 @@
       <c r="F2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="U2" s="22"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -53039,8 +54557,11 @@
       <c r="F3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="U3" s="22"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -53053,8 +54574,11 @@
       <c r="F4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="U4" s="22"/>
-    </row>
-    <row r="5" spans="1:32" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AG4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -53148,8 +54672,11 @@
       <c r="AF5" s="12" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -53164,8 +54691,11 @@
       <c r="F6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="U6" s="22"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -53178,8 +54708,11 @@
       <c r="F7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="U7" s="22"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -53191,8 +54724,11 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="Q8" s="22"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>944</v>
       </c>
@@ -53213,10 +54749,10 @@
   <sheetPr codeName="SYND05_UpfrontFee_Payment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53243,7 +54779,7 @@
     <col min="20" max="20" width="18.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -53304,8 +54840,11 @@
       <c r="T1" s="30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="U1" s="216" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>26</v>
       </c>
@@ -53318,8 +54857,11 @@
       <c r="P2" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -53332,8 +54874,11 @@
       <c r="P3" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -53346,8 +54891,11 @@
       <c r="P4" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -53408,8 +54956,11 @@
       <c r="T5" s="36" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -53425,16 +54976,22 @@
       <c r="P6" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -53446,6 +55003,9 @@
       </c>
       <c r="P8" s="1" t="s">
         <v>1231</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -53464,9 +55024,11 @@
   <sheetPr codeName="TDP_ORIG03Customer">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CR12"/>
+  <dimension ref="A1:CS12"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CT10" sqref="CT10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -53554,7 +55116,7 @@
     <col min="96" max="96" width="34.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -53843,8 +55405,11 @@
       <c r="CR1" s="5" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS1" s="24" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -54130,8 +55695,11 @@
       <c r="CR2" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS2" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -54417,8 +55985,11 @@
       <c r="CR3" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS3" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -54704,8 +56275,11 @@
       <c r="CR4" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS4" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -54991,8 +56565,11 @@
       <c r="CR5" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS5" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -55278,8 +56855,11 @@
       <c r="CR6" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS6" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -55565,8 +57145,11 @@
       <c r="CR7" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS7" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -55852,8 +57435,11 @@
       <c r="CR8" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS8" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -56139,8 +57725,11 @@
       <c r="CR9" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS9" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -56421,8 +58010,11 @@
       <c r="CR10" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS10" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -56708,8 +58300,11 @@
       <c r="CR11" s="7" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS11" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -56997,6 +58592,9 @@
       </c>
       <c r="CR12" s="7" t="s">
         <v>1539</v>
+      </c>
+      <c r="CS12" s="7" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -57017,7 +58615,9 @@
   </sheetPr>
   <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57072,7 +58672,7 @@
     <col min="52" max="52" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="219" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" s="219" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
@@ -57229,16 +58829,22 @@
       <c r="AZ1" s="223" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA1" s="219" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="60">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="225">
         <v>2</v>
       </c>
@@ -57248,24 +58854,33 @@
       <c r="AY3" s="1" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="225">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BA4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="225">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:52" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BA5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="225">
         <v>5</v>
       </c>
@@ -57398,16 +59013,22 @@
       <c r="AZ6" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="7" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BA6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="225">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BA7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="225">
         <v>7</v>
       </c>
@@ -57417,8 +59038,11 @@
       <c r="P8" s="1" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="9" spans="1:52" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BA8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="225">
         <v>8</v>
       </c>
@@ -57541,6 +59165,9 @@
       </c>
       <c r="AZ9" s="1" t="s">
         <v>301</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="24" spans="53:53" x14ac:dyDescent="0.2">
@@ -57565,9 +59192,11 @@
   <sheetPr codeName="API_BaseRates">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57580,7 +59209,7 @@
     <col min="19" max="22" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -57647,64 +59276,88 @@
       <c r="V1" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="2" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -57755,6 +59408,9 @@
       </c>
       <c r="U9" s="1" t="s">
         <v>315</v>
+      </c>
+      <c r="W9" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -57773,9 +59429,11 @@
   <sheetPr codeName="API_FXRates">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57786,7 +59444,7 @@
     <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -57802,64 +59460,88 @@
       <c r="E1" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -57874,6 +59556,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>353</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -57892,9 +59577,11 @@
   <sheetPr codeName="API_HolidayCalendar">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57908,7 +59595,7 @@
     <col min="14" max="16" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -57957,64 +59644,88 @@
       <c r="P1" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="2" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -58044,6 +59755,9 @@
       </c>
       <c r="O9" s="1" t="s">
         <v>375</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/LoanIQ_DataSet/LIQ_Data_Set.xlsx
+++ b/DataSet/LoanIQ_DataSet/LIQ_Data_Set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_scotia\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70C57B-397C-4239-B60F-99FE9277CEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C7EC7-C81D-4361-9403-6B1DDA52A490}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27090" windowHeight="12885" tabRatio="870" firstSheet="61" activeTab="67" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="31" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMCH02_LenderShareAdjustoment" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10847" uniqueCount="2284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10280" uniqueCount="2284">
   <si>
     <t>rowid</t>
   </si>
@@ -6980,7 +6980,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7089,6 +7089,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -7344,7 +7350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -7668,8 +7674,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8006,9 +8010,7 @@
   </sheetPr>
   <dimension ref="A1:EH11"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8212,9 +8214,6 @@
       <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>2280</v>
-      </c>
       <c r="CH1" s="3"/>
       <c r="CI1" s="3"/>
       <c r="CJ1" s="3"/>
@@ -8295,9 +8294,6 @@
       <c r="S2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="AA2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:138" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -8330,9 +8326,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
-      <c r="AA3" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="8"/>
@@ -8365,9 +8359,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
-      <c r="AA4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
@@ -8533,9 +8525,6 @@
       <c r="Z5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="EH5" s="12" t="s">
         <v>57</v>
       </c>
@@ -8566,9 +8555,6 @@
       <c r="S6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="AA6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:138" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -8589,9 +8575,6 @@
       <c r="S7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="AA7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:138" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -8620,9 +8603,6 @@
       <c r="S8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="AA8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:138" x14ac:dyDescent="0.2">
       <c r="H9" s="1">
@@ -8709,11 +8689,9 @@
   <sheetPr codeName="Batch_EOD">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8739,7 +8717,7 @@
     <col min="21" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -8815,11 +8793,8 @@
       <c r="Y1" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="AA1" s="43" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8892,11 +8867,8 @@
       <c r="Y2" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="AA2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8971,9 +8943,6 @@
       </c>
       <c r="Y3" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -8996,7 +8965,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9330,9 +9299,7 @@
       <c r="BD1" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="BE1" s="66" t="s">
-        <v>2280</v>
-      </c>
+      <c r="BE1" s="66"/>
       <c r="BF1" s="66"/>
       <c r="BG1" s="66"/>
       <c r="BH1" s="66"/>
@@ -9441,9 +9408,6 @@
       <c r="AR2" s="68"/>
       <c r="AS2" s="68"/>
       <c r="AT2" s="68"/>
-      <c r="BE2" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="BZ2" s="23"/>
       <c r="CA2" s="23"/>
       <c r="CK2" s="69"/>
@@ -9462,9 +9426,6 @@
       <c r="G3" s="68"/>
       <c r="AJ3" s="70"/>
       <c r="AU3" s="70"/>
-      <c r="BE3" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="BZ3" s="23"/>
       <c r="CA3" s="23"/>
       <c r="CJ3" s="9"/>
@@ -9476,9 +9437,6 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="BJ4" s="8"/>
       <c r="BL4" s="8"/>
@@ -9615,9 +9573,6 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
-      <c r="BE5" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="BK5" s="8"/>
     </row>
     <row r="6" spans="1:197" ht="14.25" x14ac:dyDescent="0.2">
@@ -9632,9 +9587,6 @@
       <c r="G6" s="8"/>
       <c r="AJ6" s="70"/>
       <c r="AU6" s="70"/>
-      <c r="BE6" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="BK6" s="72"/>
       <c r="BZ6" s="23"/>
       <c r="CA6" s="23"/>
@@ -9669,9 +9621,6 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="BE7" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="BK7" s="8"/>
     </row>
     <row r="8" spans="1:197" x14ac:dyDescent="0.2">
@@ -9702,9 +9651,6 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
-      <c r="BE8" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="BK8" s="8"/>
     </row>
     <row r="9" spans="1:197" ht="15" x14ac:dyDescent="0.25">
@@ -9870,9 +9816,6 @@
       </c>
       <c r="BD9" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="BZ9" s="23"/>
       <c r="CA9" s="23"/>
@@ -9894,9 +9837,6 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="BE10" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="BZ10" s="23"/>
       <c r="CA10" s="23"/>
@@ -9950,9 +9890,7 @@
   </sheetPr>
   <dimension ref="A1:DL9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10096,9 +10034,6 @@
       <c r="J1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="K1" s="43" t="s">
-        <v>2280</v>
-      </c>
       <c r="AD1" s="2"/>
       <c r="BL1" s="44"/>
       <c r="BM1" s="44"/>
@@ -10167,9 +10102,6 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:116" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -10185,9 +10117,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:116" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -10203,9 +10133,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -10302,9 +10230,6 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:116" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -10312,9 +10237,6 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:116" ht="12.75" x14ac:dyDescent="0.2">
@@ -10331,9 +10253,6 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="DL7" s="1" t="s">
         <v>492</v>
       </c>
@@ -10352,9 +10271,6 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -10386,9 +10302,6 @@
       </c>
       <c r="J9" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -10409,9 +10322,7 @@
   </sheetPr>
   <dimension ref="A1:DP14"/>
   <sheetViews>
-    <sheetView topLeftCell="CA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CE5" sqref="CE5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10755,9 +10666,6 @@
       <c r="CC1" s="76" t="s">
         <v>547</v>
       </c>
-      <c r="CD1" s="76" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10783,9 +10691,6 @@
       <c r="BF2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
-      <c r="CD2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -10813,9 +10718,6 @@
       <c r="BI3" s="45"/>
       <c r="BP3" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
@@ -10874,9 +10776,7 @@
       <c r="CA4" s="8"/>
       <c r="CB4" s="8"/>
       <c r="CC4" s="8"/>
-      <c r="CD4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="CD4" s="8"/>
       <c r="CE4" s="8"/>
       <c r="CF4" s="8"/>
       <c r="CI4" s="8"/>
@@ -10916,9 +10816,6 @@
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
       <c r="AM5" s="8"/>
-      <c r="CD5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:120" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -10944,9 +10841,6 @@
       <c r="AR6" s="68"/>
       <c r="AS6" s="68"/>
       <c r="BG6" s="68"/>
-      <c r="CD6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -10960,9 +10854,6 @@
       <c r="F7" s="1"/>
       <c r="I7" s="1"/>
       <c r="AM7" s="8"/>
-      <c r="CD7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -10976,9 +10867,6 @@
       <c r="F8" s="1"/>
       <c r="I8" s="1"/>
       <c r="AM8" s="8"/>
-      <c r="CD8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:120" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -11223,9 +11111,6 @@
       </c>
       <c r="CC9" s="1">
         <v>4978.12</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="DM9" s="1"/>
       <c r="DN9" s="1">
@@ -11327,8 +11212,8 @@
   <dimension ref="A1:FN13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2:L10"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11514,9 +11399,7 @@
       <c r="K1" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="L1" s="66" t="s">
-        <v>2280</v>
-      </c>
+      <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
       <c r="O1" s="66"/>
@@ -11622,9 +11505,6 @@
       <c r="G2" s="68"/>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
-      <c r="L2" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="BB2" s="23"/>
       <c r="BC2" s="23"/>
       <c r="BM2" s="69"/>
@@ -11642,9 +11522,6 @@
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
       <c r="H3" s="68"/>
-      <c r="L3" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="S3" s="70"/>
       <c r="T3" s="70"/>
       <c r="BB3" s="23"/>
@@ -11658,9 +11535,6 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AN4" s="8"/>
@@ -11781,9 +11655,6 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="L5" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AM5" s="8"/>
     </row>
     <row r="6" spans="1:170" ht="14.25" x14ac:dyDescent="0.2">
@@ -11798,9 +11669,6 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="L6" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="S6" s="70"/>
       <c r="T6" s="70"/>
       <c r="AM6" s="72"/>
@@ -11821,9 +11689,6 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="L7" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AM7" s="8"/>
     </row>
     <row r="8" spans="1:170" x14ac:dyDescent="0.2">
@@ -11838,9 +11703,6 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="L8" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AM8" s="8"/>
     </row>
     <row r="9" spans="1:170" ht="15" x14ac:dyDescent="0.25">
@@ -11876,9 +11738,6 @@
       </c>
       <c r="K9" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="BB9" s="23"/>
       <c r="BC9" s="23"/>
@@ -11891,9 +11750,6 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="BB10" s="23"/>
       <c r="BC10" s="23"/>
@@ -11949,9 +11805,7 @@
   </sheetPr>
   <dimension ref="A1:FA21"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2:AR9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12214,9 +12068,6 @@
       <c r="AQ1" s="96" t="s">
         <v>605</v>
       </c>
-      <c r="AR1" s="96" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
@@ -12239,9 +12090,6 @@
       <c r="AB2" s="7"/>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
-      <c r="AR2" s="70" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A3" s="70">
@@ -12320,9 +12168,6 @@
       <c r="AQ3" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="AR3" s="70" t="s">
-        <v>2282</v>
-      </c>
       <c r="EP3" s="1" t="s">
         <v>615</v>
       </c>
@@ -12357,9 +12202,7 @@
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
-      <c r="AR4" s="70" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
@@ -12461,9 +12304,6 @@
       <c r="AB5" s="7"/>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
-      <c r="AR5" s="70" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:157" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="70">
@@ -12529,9 +12369,6 @@
       </c>
       <c r="AQ6" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="AR6" s="70" t="s">
-        <v>2282</v>
       </c>
       <c r="EP6" s="1"/>
       <c r="EQ6" s="1"/>
@@ -12578,9 +12415,6 @@
       <c r="AB7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
-      <c r="AR7" s="70" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A8" s="70">
@@ -12603,9 +12437,6 @@
       <c r="AB8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
-      <c r="AR8" s="70" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:157" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
@@ -12736,9 +12567,6 @@
       </c>
       <c r="AQ9" s="110" t="s">
         <v>481</v>
-      </c>
-      <c r="AR9" s="70" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="11" spans="1:157" ht="14.25" x14ac:dyDescent="0.2">
@@ -12940,11 +12768,9 @@
   <sheetPr codeName="CRE09_LoanDrawDown">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X9" sqref="A9:XFD9"/>
-    </sheetView>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12978,7 +12804,7 @@
     <col min="31" max="31" width="39.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -13072,11 +12898,8 @@
       <c r="AE1" s="85" t="s">
         <v>521</v>
       </c>
-      <c r="AL1" s="114" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13097,11 +12920,8 @@
       <c r="R2" s="68"/>
       <c r="S2" s="68"/>
       <c r="X2" s="68"/>
-      <c r="AL2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -13127,11 +12947,8 @@
       <c r="Y3" s="68"/>
       <c r="Z3" s="68"/>
       <c r="AA3" s="68"/>
-      <c r="AL3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -13143,11 +12960,8 @@
       <c r="Y4" s="91"/>
       <c r="Z4" s="91"/>
       <c r="AA4" s="91"/>
-      <c r="AL4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -13173,11 +12987,8 @@
       <c r="Y5" s="68"/>
       <c r="Z5" s="68"/>
       <c r="AA5" s="68"/>
-      <c r="AL5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -13267,11 +13078,8 @@
       <c r="AE6" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="AL6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -13297,11 +13105,8 @@
       <c r="Y7" s="68"/>
       <c r="Z7" s="68"/>
       <c r="AA7" s="68"/>
-      <c r="AL7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -13326,11 +13131,8 @@
       <c r="Y8" s="68"/>
       <c r="Z8" s="68"/>
       <c r="AA8" s="68"/>
-      <c r="AL8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>8</v>
       </c>
@@ -13433,9 +13235,6 @@
       </c>
       <c r="AK9" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -13454,11 +13253,9 @@
   <sheetPr codeName="CRE11_LoanDrawDown">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BS20"/>
+  <dimension ref="A1:BR20"/>
   <sheetViews>
-    <sheetView topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BS9" sqref="BS9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13530,7 +13327,7 @@
     <col min="70" max="70" width="18.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -13733,11 +13530,8 @@
       <c r="BR1" s="65" t="s">
         <v>699</v>
       </c>
-      <c r="BS1" s="229" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13767,11 +13561,8 @@
       <c r="BN2" s="1"/>
       <c r="BQ2" s="117"/>
       <c r="BR2" s="117"/>
-      <c r="BS2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -13796,11 +13587,8 @@
       <c r="BA3" s="68"/>
       <c r="BB3" s="1"/>
       <c r="BR3" s="118"/>
-      <c r="BS3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -13861,11 +13649,8 @@
       <c r="BP4" s="91"/>
       <c r="BQ4" s="91"/>
       <c r="BR4" s="91"/>
-      <c r="BS4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -13890,11 +13675,8 @@
       <c r="BA5" s="68"/>
       <c r="BB5" s="1"/>
       <c r="BR5" s="68"/>
-      <c r="BS5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -14086,11 +13868,8 @@
       <c r="BR6" s="121" t="s">
         <v>715</v>
       </c>
-      <c r="BS6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -14115,11 +13894,8 @@
       <c r="BA7" s="68"/>
       <c r="BB7" s="1"/>
       <c r="BR7" s="68"/>
-      <c r="BS7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -14143,11 +13919,8 @@
       <c r="BA8" s="68"/>
       <c r="BB8" s="1"/>
       <c r="BR8" s="68"/>
-      <c r="BS8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>8</v>
       </c>
@@ -14288,15 +14061,12 @@
         <v>711</v>
       </c>
       <c r="BR9" s="68"/>
-      <c r="BS9" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="AU10" s="116"/>
       <c r="AV10" s="116"/>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="L11" s="1"/>
@@ -14320,7 +14090,7 @@
       <c r="BP11" s="1"/>
       <c r="BQ11" s="117"/>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="AQ12" s="1"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8"/>
@@ -14328,11 +14098,11 @@
       <c r="AU12" s="116"/>
       <c r="AV12" s="116"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="AU13" s="116"/>
       <c r="AV13" s="116"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="L14" s="1"/>
@@ -14356,13 +14126,13 @@
       <c r="BP14" s="117"/>
       <c r="BQ14" s="117"/>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="V15" s="71"/>
       <c r="W15" s="71"/>
       <c r="AU15" s="116"/>
       <c r="AV15" s="116"/>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -14404,11 +14174,11 @@
   <sheetPr codeName="CRED01_DealSetup">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FC14"/>
+  <dimension ref="A1:FB14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="EZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FC2" sqref="FC2:FC9"/>
+      <pane xSplit="2" topLeftCell="ET1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FA3" sqref="FA3:FB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14549,7 +14319,7 @@
     <col min="156" max="156" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:158" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -15024,11 +14794,8 @@
       <c r="FB1" s="226" t="s">
         <v>2278</v>
       </c>
-      <c r="FC1" s="122" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -15410,11 +15177,8 @@
       <c r="FB2" t="s">
         <v>2279</v>
       </c>
-      <c r="FC2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60">
         <v>2</v>
       </c>
@@ -15789,11 +15553,8 @@
       <c r="FB3" t="s">
         <v>2279</v>
       </c>
-      <c r="FC3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -16192,11 +15953,8 @@
       <c r="FB4" t="s">
         <v>2279</v>
       </c>
-      <c r="FC4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60">
         <v>4</v>
       </c>
@@ -16534,11 +16292,8 @@
       <c r="FB5" t="s">
         <v>2279</v>
       </c>
-      <c r="FC5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -16811,11 +16566,8 @@
       <c r="FB6" t="s">
         <v>2279</v>
       </c>
-      <c r="FC6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:158" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -17232,11 +16984,8 @@
       <c r="FB7" t="s">
         <v>2279</v>
       </c>
-      <c r="FC7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:159" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -17618,11 +17367,8 @@
       <c r="FB8" t="s">
         <v>2279</v>
       </c>
-      <c r="FC8" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:159" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -17900,11 +17646,8 @@
       <c r="FB9" t="s">
         <v>2279</v>
       </c>
-      <c r="FC9" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:159" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:158" x14ac:dyDescent="0.25">
       <c r="EA12" s="20"/>
       <c r="EI12" s="20"/>
       <c r="EJ12" s="20"/>
@@ -17921,7 +17664,7 @@
       <c r="EV12" s="20"/>
       <c r="EW12" s="20"/>
     </row>
-    <row r="14" spans="1:159" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:158" ht="12.75" x14ac:dyDescent="0.2">
       <c r="DM14" s="1"/>
       <c r="DN14" s="1"/>
       <c r="DO14" s="1"/>
@@ -17964,10 +17707,10 @@
   <dimension ref="A1:AW9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18163,9 +17906,6 @@
       <c r="AV1" s="66" t="s">
         <v>868</v>
       </c>
-      <c r="AW1" s="66" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -18261,9 +18001,6 @@
       </c>
       <c r="AL2" s="73" t="s">
         <v>908</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="3" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -18338,9 +18075,6 @@
       <c r="AI3" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="AW3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -18432,9 +18166,6 @@
       </c>
       <c r="AL4" s="73" t="s">
         <v>908</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="5" spans="1:49" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -18530,9 +18261,7 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
-      <c r="AW5" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -18603,9 +18332,6 @@
       <c r="AI6" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="AW6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -18745,9 +18471,6 @@
       <c r="AV7" s="132" t="s">
         <v>918</v>
       </c>
-      <c r="AW7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -18844,9 +18567,6 @@
       <c r="AL8" s="73" t="s">
         <v>908</v>
       </c>
-      <c r="AW8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -18928,9 +18648,7 @@
       <c r="AI9" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="AW9" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AW9" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -18950,9 +18668,7 @@
   </sheetPr>
   <dimension ref="A1:BR11"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB1" sqref="BB1:BB2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19142,9 +18858,6 @@
       <c r="BA1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -19162,25 +18875,16 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="BB2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="BB4" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="5" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -19189,33 +18893,21 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BB5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="BB6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="BB7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="BB8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -19377,9 +19069,7 @@
       <c r="BA9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB9" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
@@ -19420,9 +19110,7 @@
   </sheetPr>
   <dimension ref="A1:EL9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19577,9 +19265,7 @@
       <c r="G1" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>2280</v>
-      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -19651,9 +19337,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
-        <v>2282</v>
-      </c>
+      <c r="H2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="M2" s="8"/>
@@ -19673,9 +19357,6 @@
       <c r="D3" s="99"/>
       <c r="E3" s="99"/>
       <c r="F3" s="99"/>
-      <c r="H3" s="7" t="s">
-        <v>2282</v>
-      </c>
       <c r="I3" s="99"/>
       <c r="J3" s="9"/>
       <c r="K3" s="137"/>
@@ -19713,9 +19394,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="99"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
-        <v>2282</v>
-      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -19837,9 +19516,6 @@
       <c r="D5" s="99"/>
       <c r="E5" s="99"/>
       <c r="F5" s="99"/>
-      <c r="H5" s="7" t="s">
-        <v>2282</v>
-      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="M5" s="8"/>
@@ -19870,9 +19546,6 @@
       <c r="G6" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>2282</v>
-      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="M6" s="8"/>
@@ -19888,9 +19561,6 @@
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>2282</v>
-      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="M7" s="8"/>
@@ -19905,9 +19575,6 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>2282</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -19941,13 +19608,13 @@
   <sheetPr codeName="CRED08_FacilityFeeSetup">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC9"/>
+  <dimension ref="A1:BB9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BC12" sqref="BC12"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19981,7 +19648,7 @@
     <col min="51" max="54" width="25.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
@@ -20144,11 +19811,8 @@
       <c r="BB1" s="43" t="s">
         <v>1097</v>
       </c>
-      <c r="BC1" s="43" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -20215,11 +19879,8 @@
       <c r="AM2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BC2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -20324,11 +19985,8 @@
       <c r="AP3" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="BC3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -20413,11 +20071,8 @@
       <c r="AM4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BC4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -20527,11 +20182,8 @@
       <c r="BB5" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="BC5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -20637,11 +20289,8 @@
       <c r="AR6" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="BC6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -20752,11 +20401,8 @@
       <c r="AR7" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="BC7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -20823,11 +20469,8 @@
       <c r="AM8" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BC8" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -20947,9 +20590,6 @@
       </c>
       <c r="BA9" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -20968,11 +20608,9 @@
   <sheetPr codeName="CRED08_TickingFee">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="A10:XFD10"/>
-    </sheetView>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21000,7 +20638,7 @@
     <col min="22" max="22" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -21067,22 +20705,16 @@
       <c r="V1" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -21095,22 +20727,16 @@
       <c r="E3" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="W3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="W4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -21120,11 +20746,8 @@
       <c r="E5" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="W5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -21134,33 +20757,24 @@
       <c r="E6" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="W6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -21227,11 +20841,8 @@
       <c r="V9" s="1">
         <v>2</v>
       </c>
-      <c r="W9" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>1127</v>
       </c>
@@ -21256,7 +20867,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21366,9 +20977,7 @@
       <c r="W1" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="X1" s="141" t="s">
-        <v>2280</v>
-      </c>
+      <c r="X1" s="141"/>
       <c r="Y1" s="141"/>
       <c r="Z1" s="141"/>
       <c r="AA1" s="141"/>
@@ -21402,9 +21011,6 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="X2" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AI2" s="1" t="s">
         <v>1143</v>
       </c>
@@ -21471,9 +21077,7 @@
       <c r="W3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="X3" s="9"/>
       <c r="AB3" s="27"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="8"/>
@@ -21532,9 +21136,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -21610,9 +21212,6 @@
       <c r="W5" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -21673,9 +21272,6 @@
       </c>
       <c r="W6" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:142" x14ac:dyDescent="0.2">
@@ -21695,9 +21291,6 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="X7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -21719,9 +21312,6 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="X8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -21765,9 +21355,6 @@
       </c>
       <c r="R9" s="8">
         <v>100</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -21789,8 +21376,8 @@
   <dimension ref="A1:EM9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T16" sqref="T16"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21985,9 +21572,6 @@
       <c r="T1" s="43" t="s">
         <v>1166</v>
       </c>
-      <c r="U1" s="43" t="s">
-        <v>2280</v>
-      </c>
       <c r="BF1" s="2"/>
       <c r="CN1" s="44"/>
       <c r="CO1" s="44"/>
@@ -22063,9 +21647,6 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
-      <c r="U2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -22120,9 +21701,7 @@
       <c r="T3" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="U3" s="27"/>
       <c r="V3" s="27"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="9"/>
@@ -22170,9 +21749,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
@@ -22304,9 +21881,6 @@
       <c r="P5" s="93"/>
       <c r="Q5" s="93"/>
       <c r="R5" s="93"/>
-      <c r="U5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -22352,9 +21926,6 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.2">
@@ -22372,9 +21943,6 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="U7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:143" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -22397,9 +21965,6 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="U8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:143" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
@@ -22428,11 +21993,9 @@
   <sheetPr codeName="CRED11_DrivenCollectAgencyFee">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22443,7 +22006,7 @@
     <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -22462,55 +22025,40 @@
       <c r="F1" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -22529,30 +22077,21 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -22571,11 +22110,9 @@
   <sheetPr codeName="DLCH01_DealChangeTransaction">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22594,7 +22131,7 @@
     <col min="13" max="13" width="21.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -22634,11 +22171,8 @@
       <c r="M1" s="143" t="s">
         <v>1186</v>
       </c>
-      <c r="N1" s="143" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -22678,22 +22212,16 @@
       <c r="M2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -22706,41 +22234,29 @@
       <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -22776,9 +22292,6 @@
       </c>
       <c r="M8" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -22799,9 +22312,7 @@
   </sheetPr>
   <dimension ref="A1:EJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
-    </sheetView>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23014,9 +22525,6 @@
       <c r="Y1" s="141" t="s">
         <v>1202</v>
       </c>
-      <c r="Z1" s="43" t="s">
-        <v>2280</v>
-      </c>
       <c r="BC1" s="2"/>
       <c r="CK1" s="44"/>
       <c r="CL1" s="44"/>
@@ -23091,9 +22599,6 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="Z2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -23122,9 +22627,6 @@
       <c r="S3" s="27"/>
       <c r="V3" s="8"/>
       <c r="W3" s="9"/>
-      <c r="Z3" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AA3" s="27"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="8"/>
@@ -23212,9 +22714,6 @@
       <c r="Y4" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="5" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -23236,9 +22735,6 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="Z5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -23260,9 +22756,6 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="Z6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -23281,9 +22774,6 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="Z7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -23305,9 +22795,6 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="Z8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:140" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
@@ -23332,9 +22819,7 @@
   </sheetPr>
   <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23494,9 +22979,6 @@
       <c r="AG1" s="124" t="s">
         <v>1225</v>
       </c>
-      <c r="AH1" s="122" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="152">
@@ -23505,9 +22987,6 @@
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AK2" s="153"/>
       <c r="AL2" s="153"/>
     </row>
@@ -23518,9 +22997,6 @@
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AK3" s="153"/>
       <c r="AL3" s="153"/>
     </row>
@@ -23531,9 +23007,6 @@
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AK4" s="153"/>
       <c r="AL4" s="153"/>
     </row>
@@ -23544,9 +23017,6 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AK5" s="153"/>
       <c r="AL5" s="153"/>
     </row>
@@ -23557,9 +23027,6 @@
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AK6" s="153"/>
       <c r="AL6" s="153"/>
       <c r="BG6" s="1"/>
@@ -23572,9 +23039,6 @@
         <v>60</v>
       </c>
       <c r="AE7" s="132"/>
-      <c r="AH7" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="AK7" s="153"/>
       <c r="AL7" s="153"/>
       <c r="AN7" s="22"/>
@@ -23588,9 +23052,6 @@
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="154">
@@ -23691,9 +23152,6 @@
       </c>
       <c r="AG9" s="70" t="s">
         <v>919</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.2">
@@ -23807,11 +23265,9 @@
   <sheetPr codeName="MTAM02_ManualCashflow">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2:AG9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23845,7 +23301,7 @@
     <col min="32" max="32" width="29.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -23942,88 +23398,64 @@
       <c r="AF1" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="154">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AG6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AG8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="154">
         <v>8</v>
       </c>
@@ -24116,9 +23548,6 @@
       </c>
       <c r="AF9" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -24139,9 +23568,7 @@
   </sheetPr>
   <dimension ref="A1:CL9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24219,9 +23646,7 @@
       <c r="I1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>2280</v>
-      </c>
+      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -24316,9 +23741,6 @@
       <c r="F2" s="8"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
@@ -24356,9 +23778,6 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
@@ -24396,9 +23815,6 @@
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
@@ -24478,9 +23894,6 @@
       <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -24520,9 +23933,6 @@
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
-      <c r="J6" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
@@ -24560,9 +23970,6 @@
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="J7" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
@@ -24600,9 +24007,6 @@
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
-      <c r="J8" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
@@ -24651,8 +24055,8 @@
   <dimension ref="A1:DT11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD2" sqref="AD2:AD8"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24863,9 +24267,6 @@
       <c r="AC1" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>2280</v>
-      </c>
       <c r="BU1" s="3"/>
       <c r="BV1" s="3"/>
       <c r="BW1" s="3"/>
@@ -24932,9 +24333,6 @@
       <c r="E2" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -24963,9 +24361,6 @@
       <c r="R3" s="9"/>
       <c r="S3" s="8"/>
       <c r="T3" s="10"/>
-      <c r="AD3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -25055,9 +24450,7 @@
       <c r="AC4" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
@@ -25144,9 +24537,6 @@
       <c r="E5" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -25161,9 +24551,6 @@
       <c r="E6" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -25172,9 +24559,6 @@
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -25188,9 +24572,6 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="9" spans="1:124" x14ac:dyDescent="0.2">
@@ -25221,9 +24602,7 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
-    </sheetView>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25343,9 +24722,6 @@
       <c r="AC1" s="157" t="s">
         <v>1309</v>
       </c>
-      <c r="AD1" s="157" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -25375,9 +24751,6 @@
       <c r="AC2" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
@@ -25392,9 +24765,6 @@
       <c r="E3" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
@@ -25409,9 +24779,6 @@
       <c r="E4" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
@@ -25426,9 +24793,6 @@
       <c r="E5" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
@@ -25458,9 +24822,6 @@
       <c r="AC6" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
@@ -25548,9 +24909,7 @@
       <c r="AC7" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AD7" s="70"/>
       <c r="AE7" s="158"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -25581,9 +24940,7 @@
       <c r="AC8" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AD8" s="71"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -25601,11 +24958,9 @@
   <sheetPr codeName="MTAM06B_CycleShareAdjustment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AK8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25624,7 +24979,7 @@
     <col min="36" max="36" width="18.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -25733,11 +25088,8 @@
       <c r="AJ1" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -25750,11 +25102,8 @@
       <c r="F2" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="AK2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
         <v>2</v>
       </c>
@@ -25767,11 +25116,8 @@
       <c r="F3" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="AK3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
         <v>3</v>
       </c>
@@ -25784,11 +25130,8 @@
       <c r="F4" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="AK4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
         <v>4</v>
       </c>
@@ -25801,11 +25144,8 @@
       <c r="F5" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="AK5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
         <v>5</v>
       </c>
@@ -25820,11 +25160,8 @@
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AK6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
         <v>6</v>
       </c>
@@ -25933,11 +25270,8 @@
       <c r="AJ7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
         <v>7</v>
       </c>
@@ -25949,9 +25283,6 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -25970,11 +25301,9 @@
   <sheetPr codeName="MTAM07_FacilityShareAdjustment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26003,7 +25332,7 @@
     <col min="27" max="27" width="9.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="160" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="160" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
@@ -26085,11 +25414,8 @@
       <c r="AA1" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="AB1" s="160" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -26099,11 +25425,8 @@
       <c r="C2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AB2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -26185,11 +25508,8 @@
       <c r="AA3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -26199,11 +25519,8 @@
       <c r="C4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AB4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -26213,11 +25530,8 @@
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -26233,22 +25547,16 @@
       <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AB6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AB7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -26258,11 +25566,8 @@
       <c r="C8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AB8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>1376</v>
       </c>
@@ -26286,11 +25591,9 @@
   <sheetPr codeName="MTAM08_LoanShareAdjustment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AH8"/>
-    </sheetView>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26329,7 +25632,7 @@
     <col min="33" max="33" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
@@ -26429,11 +25732,8 @@
       <c r="AG1" s="124" t="s">
         <v>698</v>
       </c>
-      <c r="AH1" s="122" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="152">
         <v>1</v>
       </c>
@@ -26443,11 +25743,8 @@
       <c r="AA2" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="AH2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
         <v>2</v>
       </c>
@@ -26460,11 +25757,8 @@
       <c r="AA3" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="AH3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
         <v>3</v>
       </c>
@@ -26474,11 +25768,8 @@
       <c r="AA4" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="AH4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
         <v>4</v>
       </c>
@@ -26488,11 +25779,8 @@
       <c r="AA5" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="AH5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
         <v>5</v>
       </c>
@@ -26592,22 +25880,16 @@
       <c r="AG6" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AH6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AH7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
         <v>7</v>
       </c>
@@ -26617,15 +25899,12 @@
       <c r="AA8" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="AH8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K13" s="23"/>
       <c r="M13" s="23"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="K16" s="71"/>
@@ -26667,8 +25946,8 @@
   </sheetPr>
   <dimension ref="A1:CU9"/>
   <sheetViews>
-    <sheetView topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CT1" sqref="CT1"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CW14" sqref="CW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29450,9 +28729,7 @@
   </sheetPr>
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29544,9 +28821,6 @@
       <c r="U1" s="167" t="s">
         <v>1598</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -29558,9 +28832,6 @@
       <c r="C2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
@@ -29572,9 +28843,6 @@
       <c r="C3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
@@ -29586,9 +28854,6 @@
       <c r="C4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
@@ -29600,9 +28865,6 @@
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
@@ -29614,9 +28876,6 @@
       <c r="C6" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
@@ -29682,9 +28941,6 @@
       <c r="U7" s="1">
         <v>0.5</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
@@ -29696,9 +28952,6 @@
       <c r="C8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -29763,9 +29016,6 @@
       </c>
       <c r="U9" s="1">
         <v>1</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -29787,9 +29037,7 @@
   </sheetPr>
   <dimension ref="A1:CK8"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2:AR8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30000,9 +29248,6 @@
       <c r="AQ1" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="AR1" s="24" t="s">
-        <v>2280</v>
-      </c>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
@@ -30179,9 +29424,6 @@
       <c r="AQ2" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -30290,9 +29532,6 @@
         <v>1670</v>
       </c>
       <c r="AJ3" s="8"/>
-      <c r="AR3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -30415,9 +29654,7 @@
       <c r="AQ4" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
@@ -30547,9 +29784,6 @@
         <v>1670</v>
       </c>
       <c r="AJ5" s="8"/>
-      <c r="AR5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -30658,9 +29892,6 @@
         <v>1670</v>
       </c>
       <c r="AJ6" s="8"/>
-      <c r="AR6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -30769,9 +30000,6 @@
         <v>1670</v>
       </c>
       <c r="AJ7" s="8"/>
-      <c r="AR7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -30880,9 +30108,6 @@
         <v>1670</v>
       </c>
       <c r="AJ8" s="8"/>
-      <c r="AR8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -30903,8 +30128,8 @@
   <dimension ref="A1:CR21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR2" sqref="AR2:AR9"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31123,9 +30348,7 @@
       <c r="AQ1" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>2280</v>
-      </c>
+      <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
@@ -31309,9 +30532,6 @@
       <c r="AQ2" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -31443,9 +30663,6 @@
       <c r="AQ3" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -31577,9 +30794,7 @@
       <c r="AQ4" s="1" t="s">
         <v>1730</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
@@ -31737,9 +30952,6 @@
       <c r="AQ5" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="AR5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -31871,9 +31083,6 @@
       <c r="AQ6" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -32005,9 +31214,6 @@
       <c r="AQ7" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="AR7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -32139,9 +31345,6 @@
       <c r="AQ8" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -32272,9 +31475,6 @@
       </c>
       <c r="AQ9" s="1" t="s">
         <v>1737</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.2">
@@ -32300,9 +31500,7 @@
   </sheetPr>
   <dimension ref="A1:EX18"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32397,9 +31595,7 @@
       <c r="U1" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>2280</v>
-      </c>
+      <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -32540,9 +31736,6 @@
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
@@ -32551,9 +31744,6 @@
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -32562,9 +31752,6 @@
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
@@ -32573,9 +31760,6 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -32584,9 +31768,6 @@
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -32595,9 +31776,6 @@
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -32606,9 +31784,6 @@
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -32673,9 +31848,6 @@
       </c>
       <c r="U9" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="15" spans="1:154" x14ac:dyDescent="0.2">
@@ -32710,11 +31882,9 @@
   <sheetPr codeName="AMCH06_PricingChangeTransaction">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM9"/>
+  <dimension ref="A1:BL9"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1:BM2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32781,7 +31951,7 @@
     <col min="64" max="64" width="34.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -32974,11 +32144,8 @@
       <c r="BL1" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="BM1" s="2" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
@@ -33118,11 +32285,8 @@
       <c r="BH2" s="34"/>
       <c r="BI2" s="34"/>
       <c r="BJ2" s="34"/>
-      <c r="BM2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>111</v>
       </c>
@@ -33152,11 +32316,8 @@
       <c r="BH3" s="29"/>
       <c r="BI3" s="29"/>
       <c r="BJ3" s="29"/>
-      <c r="BM3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>112</v>
       </c>
@@ -33189,11 +32350,8 @@
       <c r="BH4" s="29"/>
       <c r="BI4" s="29"/>
       <c r="BJ4" s="29"/>
-      <c r="BM4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:65" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:64" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>113</v>
       </c>
@@ -33309,30 +32467,21 @@
       <c r="BL5" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="BM5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BM6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="BM7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>116</v>
       </c>
@@ -33469,11 +32618,8 @@
       <c r="BH8" s="34"/>
       <c r="BI8" s="34"/>
       <c r="BJ8" s="34"/>
-      <c r="BM8" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -33584,9 +32730,6 @@
       </c>
       <c r="BJ9" s="29" t="s">
         <v>241</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -33607,9 +32750,7 @@
   </sheetPr>
   <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2:AQ8"/>
-    </sheetView>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -33768,9 +32909,6 @@
       <c r="AP1" s="172" t="s">
         <v>531</v>
       </c>
-      <c r="AQ1" s="170" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -33808,9 +32946,6 @@
       <c r="AP2" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
@@ -33938,9 +33073,6 @@
       </c>
       <c r="AP3" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="15" x14ac:dyDescent="0.25">
@@ -33974,9 +33106,6 @@
       </c>
       <c r="AP4" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="15" x14ac:dyDescent="0.25">
@@ -34021,9 +33150,6 @@
       <c r="AP5" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:44" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
@@ -34145,9 +33271,6 @@
       </c>
       <c r="AP6" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="15" x14ac:dyDescent="0.25">
@@ -34176,9 +33299,6 @@
       <c r="T7" s="68"/>
       <c r="U7" s="68"/>
       <c r="V7" s="68"/>
-      <c r="AQ7" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
@@ -34220,9 +33340,7 @@
       <c r="AP8" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
     </row>
     <row r="9" spans="1:44" ht="15" x14ac:dyDescent="0.25">
@@ -34299,11 +33417,9 @@
   <sheetPr codeName="SERV01_47_FlexPISchedule">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL8"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BL2" sqref="BL2:BL8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -34360,7 +33476,7 @@
     <col min="63" max="63" width="24.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -34550,11 +33666,8 @@
       <c r="BK1" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -34584,11 +33697,8 @@
       <c r="AV2" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="BL2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" s="154">
         <v>2</v>
       </c>
@@ -34612,11 +33722,8 @@
       <c r="AV3" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="BL3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" s="154">
         <v>3</v>
       </c>
@@ -34646,11 +33753,8 @@
       <c r="AV4" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="BL4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" s="154">
         <v>4</v>
       </c>
@@ -34674,11 +33778,8 @@
       <c r="AV5" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="BL5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="154">
         <v>5</v>
       </c>
@@ -34702,11 +33803,8 @@
       <c r="AV6" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="BL6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="154">
         <v>6</v>
       </c>
@@ -34896,11 +33994,8 @@
       <c r="BK7" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="BL7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="154">
         <v>7</v>
       </c>
@@ -34927,9 +34022,6 @@
       </c>
       <c r="AV8" s="1" t="s">
         <v>1579</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -34948,11 +34040,9 @@
   <sheetPr codeName="SERV01_LoanDrawdown">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AT8"/>
+  <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2:AT8"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -34990,7 +34080,7 @@
     <col min="45" max="45" width="16.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -35126,11 +34216,8 @@
       <c r="AS1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AT1" s="230" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -35266,11 +34353,8 @@
       <c r="AS2" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AT2" s="94" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -35288,11 +34372,8 @@
         <v>1809</v>
       </c>
       <c r="AM3" s="118"/>
-      <c r="AT3" s="94" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -35345,11 +34426,8 @@
       <c r="AO4" s="91"/>
       <c r="AP4" s="91"/>
       <c r="AR4" s="1"/>
-      <c r="AT4" s="94" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="94">
         <v>4</v>
       </c>
@@ -35485,11 +34563,8 @@
       <c r="AS5" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AT5" s="94" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -35506,11 +34581,8 @@
       <c r="AF6" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="AT6" s="94" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -35518,11 +34590,8 @@
         <v>60</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="AT7" s="94" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -35657,9 +34726,6 @@
       </c>
       <c r="AS8" s="94" t="s">
         <v>52</v>
-      </c>
-      <c r="AT8" s="94" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -35678,11 +34744,9 @@
   <sheetPr codeName="SERV01_TermLoanDrawdowninUSD">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BJ25"/>
+  <dimension ref="A1:BI25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35743,7 +34807,7 @@
     <col min="58" max="59" width="20.5703125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
@@ -35921,11 +34985,8 @@
       <c r="BG1" s="122" t="s">
         <v>699</v>
       </c>
-      <c r="BJ1" s="122" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -36054,11 +35115,8 @@
       <c r="BG2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -36133,11 +35191,8 @@
       <c r="BE3" s="68"/>
       <c r="BF3" s="68"/>
       <c r="BG3" s="118"/>
-      <c r="BJ3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -36178,11 +35233,8 @@
       <c r="BE4" s="68"/>
       <c r="BF4" s="68"/>
       <c r="BG4" s="68"/>
-      <c r="BJ4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -36236,11 +35288,8 @@
       <c r="BE5" s="68"/>
       <c r="BF5" s="68"/>
       <c r="BG5" s="68"/>
-      <c r="BJ5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:61" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -36419,11 +35468,8 @@
       <c r="BI6" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="BJ6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -36477,11 +35523,8 @@
       <c r="BE7" s="68"/>
       <c r="BF7" s="68"/>
       <c r="BG7" s="68"/>
-      <c r="BJ7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -36534,11 +35577,8 @@
       <c r="BE8" s="68"/>
       <c r="BF8" s="68"/>
       <c r="BG8" s="68"/>
-      <c r="BJ8" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="68"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
@@ -36584,7 +35624,7 @@
       <c r="BF9" s="68"/>
       <c r="BG9" s="68"/>
     </row>
-    <row r="10" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -36631,7 +35671,7 @@
       <c r="BF10" s="68"/>
       <c r="BG10" s="68"/>
     </row>
-    <row r="11" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="68"/>
       <c r="D11" s="175"/>
       <c r="E11" s="68"/>
@@ -36664,7 +35704,7 @@
       <c r="BE11" s="68"/>
       <c r="BG11" s="117"/>
     </row>
-    <row r="12" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
@@ -36713,7 +35753,7 @@
       <c r="BF12" s="68"/>
       <c r="BG12" s="68"/>
     </row>
-    <row r="13" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
@@ -36760,7 +35800,7 @@
       <c r="BF13" s="68"/>
       <c r="BG13" s="68"/>
     </row>
-    <row r="14" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -36794,7 +35834,7 @@
       <c r="BF14" s="117"/>
       <c r="BG14" s="117"/>
     </row>
-    <row r="15" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -36843,7 +35883,7 @@
       <c r="BF15" s="68"/>
       <c r="BG15" s="68"/>
     </row>
-    <row r="16" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -37325,11 +36365,11 @@
   <sheetPr codeName="SERV05_SBLCIssuance">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD2" sqref="AD2:AD10"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37363,7 +36403,7 @@
     <col min="29" max="29" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -37451,11 +36491,8 @@
       <c r="AC1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="43" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -37485,11 +36522,8 @@
       </c>
       <c r="P2" s="8"/>
       <c r="AB2" s="1"/>
-      <c r="AD2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:29" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -37572,11 +36606,8 @@
       <c r="AC3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -37659,11 +36690,8 @@
       <c r="AC4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -37690,11 +36718,8 @@
         <v>943</v>
       </c>
       <c r="P5" s="8"/>
-      <c r="AD5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -37723,11 +36748,8 @@
         <v>950</v>
       </c>
       <c r="P6" s="8"/>
-      <c r="AD6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -37815,11 +36837,8 @@
       <c r="AC7" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -37848,11 +36867,8 @@
         <v>973</v>
       </c>
       <c r="P8" s="8"/>
-      <c r="AD8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>1290</v>
       </c>
@@ -37865,11 +36881,8 @@
       <c r="O9" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="AD9" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
         <v>1845</v>
       </c>
@@ -37945,11 +36958,8 @@
       <c r="AA10" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="AD10" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N13" s="1" t="s">
         <v>1851</v>
       </c>
@@ -37973,8 +36983,8 @@
   <dimension ref="A1:DF25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP2" sqref="AP2:AP8"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38165,9 +37175,7 @@
       <c r="AO1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>2280</v>
-      </c>
+      <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
@@ -38284,9 +37292,7 @@
       <c r="AL2" s="8"/>
       <c r="AN2" s="8"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="27"/>
       <c r="AS2" s="27"/>
@@ -38347,9 +37353,7 @@
       <c r="AL3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="9"/>
-      <c r="AP3" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="27"/>
       <c r="AS3" s="27"/>
@@ -38410,9 +37414,7 @@
       <c r="AL4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="9"/>
-      <c r="AP4" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="27"/>
       <c r="AS4" s="27"/>
@@ -38493,9 +37495,7 @@
       <c r="AL5" s="8"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="9"/>
-      <c r="AP5" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="27"/>
       <c r="AS5" s="27"/>
@@ -38556,9 +37556,7 @@
       <c r="AL6" s="8"/>
       <c r="AN6" s="8"/>
       <c r="AO6" s="9"/>
-      <c r="AP6" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="27"/>
       <c r="AS6" s="27"/>
@@ -38695,9 +37693,7 @@
       <c r="AO7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP7" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="27"/>
       <c r="AS7" s="27"/>
@@ -38761,9 +37757,7 @@
       <c r="AL8" s="8"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="9"/>
-      <c r="AP8" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="27"/>
       <c r="AS8" s="27"/>
@@ -38803,11 +37797,9 @@
   <sheetPr codeName="SERV08_ComprehensiveRepricing">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BH20"/>
+  <dimension ref="A1:BG20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38847,7 +37839,7 @@
     <col min="38" max="38" width="17.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="96" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="96" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
@@ -38956,11 +37948,8 @@
       <c r="AJ1" s="96" t="s">
         <v>1878</v>
       </c>
-      <c r="BH1" s="96" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
         <v>1</v>
       </c>
@@ -38995,11 +37984,8 @@
         <v>2276</v>
       </c>
       <c r="AD2" s="7"/>
-      <c r="BH2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="70">
         <v>2</v>
       </c>
@@ -39144,11 +38130,8 @@
       <c r="AX3" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="BH3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="70">
         <v>3</v>
       </c>
@@ -39163,11 +38146,8 @@
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
-      <c r="BH4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="70">
         <v>4</v>
       </c>
@@ -39202,11 +38182,8 @@
         <v>1883</v>
       </c>
       <c r="AD5" s="7"/>
-      <c r="BH5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="70">
         <v>5</v>
       </c>
@@ -39342,11 +38319,8 @@
       <c r="BG6" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="BH6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="70">
         <v>6</v>
       </c>
@@ -39373,11 +38347,8 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
-      <c r="BH7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="70">
         <v>7</v>
       </c>
@@ -39410,21 +38381,18 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
-      <c r="BH8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="AC11" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="L12" s="1" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="M15" s="71"/>
     </row>
     <row r="18" spans="31:31" x14ac:dyDescent="0.2">
@@ -39454,9 +38422,7 @@
   </sheetPr>
   <dimension ref="A1:FJ20"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2:BD8"/>
-    </sheetView>
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39763,9 +38729,6 @@
       <c r="BC1" s="64" t="s">
         <v>457</v>
       </c>
-      <c r="BD1" s="43" t="s">
-        <v>2280</v>
-      </c>
       <c r="BX1" s="2"/>
       <c r="DF1" s="44"/>
       <c r="DG1" s="44"/>
@@ -39912,9 +38875,6 @@
       <c r="AP2" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="BD2" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="ET2" s="1" t="s">
         <v>1896</v>
       </c>
@@ -39943,9 +38903,6 @@
       <c r="AO3" s="7"/>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="10"/>
-      <c r="BD3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -40015,9 +38972,6 @@
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
-      <c r="BD4" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BH4" s="8"/>
@@ -40256,9 +39210,6 @@
       <c r="BC5" s="45" t="s">
         <v>708</v>
       </c>
-      <c r="BD5" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="FH5" s="45" t="s">
         <v>1901</v>
       </c>
@@ -40395,9 +39346,6 @@
       </c>
       <c r="AP6" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:166" x14ac:dyDescent="0.25">
@@ -40424,9 +39372,6 @@
       </c>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
-      <c r="BD7" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="ES7" s="1" t="s">
         <v>492</v>
       </c>
@@ -40450,9 +39395,6 @@
       <c r="AF8" s="6"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
-      <c r="BD8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="AF9" s="189"/>
@@ -40780,11 +39722,9 @@
   <sheetPr codeName="SERV12_LoanSplit">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40813,7 +39753,7 @@
     <col min="35" max="35" width="27.5703125" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="96" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="96" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
@@ -40919,11 +39859,8 @@
       <c r="AI1" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="AJ1" s="96" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="193" t="s">
         <v>26</v>
       </c>
@@ -40937,11 +39874,8 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AJ2" s="192" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="193" t="s">
         <v>111</v>
       </c>
@@ -40955,11 +39889,8 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AJ3" s="192" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="193" t="s">
         <v>112</v>
       </c>
@@ -40973,11 +39904,8 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AJ4" s="192" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="193" t="s">
         <v>113</v>
       </c>
@@ -40991,11 +39919,8 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AJ5" s="192" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="193" t="s">
         <v>114</v>
       </c>
@@ -41009,11 +39934,8 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AJ6" s="192" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="193" t="s">
         <v>115</v>
       </c>
@@ -41027,11 +39949,8 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AJ7" s="192" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:35" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="193" t="s">
         <v>116</v>
       </c>
@@ -41045,11 +39964,8 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AJ8" s="192" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>117</v>
       </c>
@@ -41146,19 +40062,16 @@
       <c r="AI9" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AJ9" s="192" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="M15" s="71"/>
     </row>
   </sheetData>
@@ -41179,9 +40092,7 @@
   </sheetPr>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ8" sqref="AQ8"/>
-    </sheetView>
+    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -41353,9 +40264,6 @@
       <c r="AP1" s="66" t="s">
         <v>457</v>
       </c>
-      <c r="AQ1" s="66" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -41443,9 +40351,6 @@
       <c r="AO2" s="7"/>
       <c r="AP2" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -41466,9 +40371,6 @@
       <c r="AM3" s="8"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
-      <c r="AQ3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -41514,9 +40416,6 @@
       </c>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
-      <c r="AQ4" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -41531,9 +40430,6 @@
       <c r="AF5" s="1"/>
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
-      <c r="AQ5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -41661,9 +40557,6 @@
       </c>
       <c r="AP6" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -41693,9 +40586,6 @@
       </c>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
-      <c r="AQ7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="T8" s="1" t="s">
@@ -41704,9 +40594,6 @@
       <c r="AF8" s="1"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
-      <c r="AQ8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="8"/>
@@ -41875,9 +40762,7 @@
   </sheetPr>
   <dimension ref="A1:EN9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -42044,9 +40929,6 @@
       <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>2280</v>
-      </c>
       <c r="T1" s="43" t="s">
         <v>259</v>
       </c>
@@ -42117,9 +40999,7 @@
       <c r="C2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -42159,9 +41039,7 @@
       <c r="J3" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K3" s="49"/>
       <c r="L3" s="49"/>
       <c r="M3" s="50"/>
       <c r="N3" s="51"/>
@@ -42206,9 +41084,7 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -42329,9 +41205,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -42355,9 +41229,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="K6" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -42375,9 +41247,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="K7" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -42398,9 +41268,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="K8" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -42432,8 +41300,8 @@
   <dimension ref="A1:EJ11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q2" sqref="Q2:Q8"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42620,9 +41488,7 @@
       <c r="P1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>2280</v>
-      </c>
+      <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -42705,9 +41571,6 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="Q2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -42733,9 +41596,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="Q3" s="8"/>
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
       <c r="V3" s="8"/>
@@ -42800,9 +41661,7 @@
       <c r="P4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -42924,9 +41783,6 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="Q5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -42950,9 +41806,6 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="Q6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -42971,9 +41824,6 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="Q7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -42997,9 +41847,6 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="Q8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:140" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
@@ -43033,8 +41880,8 @@
   <dimension ref="A1:EO9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH2" sqref="BH2:BH9"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43347,9 +42194,6 @@
       <c r="BG1" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="BH1" s="43" t="s">
-        <v>2280</v>
-      </c>
       <c r="CJ1" s="44"/>
       <c r="CK1" s="44"/>
       <c r="CL1" s="44"/>
@@ -43504,9 +42348,6 @@
       <c r="AM2" s="69" t="s">
         <v>1955</v>
       </c>
-      <c r="BH2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -43538,9 +42379,6 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="10"/>
-      <c r="BH3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -43617,9 +42455,6 @@
       <c r="AX4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
-      <c r="BH4" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="BI4" s="8"/>
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
@@ -43713,9 +42548,6 @@
       <c r="AI5" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="BH5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -43742,9 +42574,6 @@
       <c r="U6" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="BH6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:145" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -43837,9 +42666,6 @@
         <v>1955</v>
       </c>
       <c r="AM7" s="69"/>
-      <c r="BH7" s="1" t="s">
-        <v>2282</v>
-      </c>
       <c r="EJ7" s="1" t="s">
         <v>1960</v>
       </c>
@@ -43960,9 +42786,6 @@
       <c r="AM8" s="69" t="s">
         <v>1955</v>
       </c>
-      <c r="BH8" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -44090,9 +42913,6 @@
       </c>
       <c r="BG9" s="22" t="s">
         <v>476</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -44111,11 +42931,9 @@
   <sheetPr codeName="SERV20_UnschedPrincipalPayments">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BO8"/>
+  <dimension ref="A1:BN8"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BO3" sqref="BO3:BO8"/>
-    </sheetView>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44157,7 +42975,7 @@
     <col min="56" max="56" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -44323,11 +43141,8 @@
       <c r="BD1" s="68" t="s">
         <v>1981</v>
       </c>
-      <c r="BO1" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -44367,11 +43182,8 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="117"/>
       <c r="AU2" s="68"/>
-      <c r="BO2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -44567,11 +43379,8 @@
       <c r="BN3" s="1">
         <v>14.94</v>
       </c>
-      <c r="BO3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -44611,11 +43420,8 @@
       <c r="AR4" s="91"/>
       <c r="AS4" s="91"/>
       <c r="AT4" s="91"/>
-      <c r="BO4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -44634,11 +43440,8 @@
       <c r="Q5" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="BO5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -44685,22 +43488,16 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="117"/>
       <c r="AU6" s="68"/>
-      <c r="BO6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BO7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -44709,9 +43506,6 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -44730,11 +43524,9 @@
   <sheetPr codeName="SERV21_InterestPayments">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CC15"/>
+  <dimension ref="A1:CB15"/>
   <sheetViews>
-    <sheetView topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CC2" sqref="CC2:CC8"/>
-    </sheetView>
+    <sheetView topLeftCell="BH1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44804,7 +43596,7 @@
     <col min="73" max="73" width="15.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
@@ -45024,11 +43816,8 @@
       <c r="BU1" s="209" t="s">
         <v>2002</v>
       </c>
-      <c r="CC1" s="122" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -45188,11 +43977,8 @@
       <c r="BY2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CC2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
@@ -45402,11 +44188,8 @@
       <c r="BU3" s="1">
         <v>1000</v>
       </c>
-      <c r="CC3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -45450,11 +44233,8 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="BP4" s="68"/>
-      <c r="CC4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -45494,11 +44274,8 @@
       <c r="CB5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="CC5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -45682,11 +44459,8 @@
       <c r="BP6" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="CC6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -45696,11 +44470,8 @@
       <c r="C7" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="CC7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -45852,11 +44623,8 @@
       <c r="BZ8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CC8" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="O13" s="176"/>
       <c r="P13" s="176"/>
       <c r="R13" s="210"/>
@@ -45865,14 +44633,14 @@
       <c r="U13" s="176"/>
       <c r="V13" s="176"/>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="O14" s="176"/>
       <c r="P14" s="176"/>
       <c r="R14" s="210"/>
       <c r="S14" s="210"/>
       <c r="T14" s="210"/>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="P15" s="176"/>
       <c r="R15" s="210"/>
       <c r="S15" s="210"/>
@@ -45896,9 +44664,7 @@
   </sheetPr>
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2:AQ9"/>
-    </sheetView>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46059,9 +44825,6 @@
       <c r="AP1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AQ1" s="230" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -46185,9 +44948,6 @@
       </c>
       <c r="AP2" s="68" t="s">
         <v>52</v>
-      </c>
-      <c r="AQ2" s="68" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="3" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -46237,9 +44997,6 @@
       <c r="AM3" s="68"/>
       <c r="AN3" s="68"/>
       <c r="AO3" s="68"/>
-      <c r="AQ3" s="68" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
@@ -46273,9 +45030,6 @@
       <c r="AM4" s="68"/>
       <c r="AN4" s="68"/>
       <c r="AO4" s="68"/>
-      <c r="AQ4" s="68" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="5" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="94">
@@ -46403,9 +45157,6 @@
       </c>
       <c r="AP5" s="94" t="s">
         <v>52</v>
-      </c>
-      <c r="AQ5" s="68" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -46457,9 +45208,6 @@
       <c r="AM6" s="68"/>
       <c r="AN6" s="68"/>
       <c r="AO6" s="68"/>
-      <c r="AQ6" s="68" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
@@ -46507,9 +45255,6 @@
       <c r="AM7" s="68"/>
       <c r="AN7" s="68"/>
       <c r="AO7" s="68"/>
-      <c r="AQ7" s="68" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
@@ -46558,9 +45303,6 @@
       <c r="AM8" s="68"/>
       <c r="AN8" s="68"/>
       <c r="AO8" s="68"/>
-      <c r="AQ8" s="68" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="9" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -46574,9 +45316,6 @@
       </c>
       <c r="AF9" s="211" t="s">
         <v>2052</v>
-      </c>
-      <c r="AQ9" s="68" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
@@ -46611,11 +45350,9 @@
   <sheetPr codeName="SERV23_LoanPaperClip">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2:AZ8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46646,7 +45383,7 @@
     <col min="36" max="36" width="16.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -46755,11 +45492,8 @@
       <c r="AJ1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -46820,11 +45554,8 @@
       <c r="AY2" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -46861,11 +45592,8 @@
       <c r="AV3" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="AZ3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -46908,11 +45636,8 @@
       <c r="AS4" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="AZ4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -46928,11 +45653,8 @@
       <c r="AT5" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="AZ5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -46966,11 +45688,8 @@
       <c r="AU6" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="AZ6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -47079,11 +45798,8 @@
       <c r="AJ7" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AZ7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -47098,9 +45814,6 @@
       </c>
       <c r="AR8" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -47121,9 +45834,7 @@
   </sheetPr>
   <dimension ref="A1:ER49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2:AM8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -47279,9 +45990,6 @@
       <c r="AL1" s="213" t="s">
         <v>605</v>
       </c>
-      <c r="AM1" s="212" t="s">
-        <v>2280</v>
-      </c>
     </row>
     <row r="2" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
@@ -47318,9 +46026,7 @@
       <c r="AK2" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="AM2" s="70" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AM2" s="70"/>
       <c r="AN2" s="70"/>
       <c r="AO2" s="70"/>
       <c r="AP2" s="70"/>
@@ -47543,9 +46249,7 @@
       <c r="AL3" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AM3" s="70" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="99"/>
@@ -47682,9 +46386,7 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
-      <c r="AM4" s="70" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
@@ -47831,9 +46533,7 @@
       <c r="AK5" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="AM5" s="70" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AM5" s="70"/>
       <c r="AN5" s="70"/>
       <c r="AO5" s="70"/>
       <c r="AP5" s="70"/>
@@ -48016,9 +46716,7 @@
       <c r="AL6" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AM6" s="70" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AM6" s="70"/>
       <c r="AN6" s="70"/>
       <c r="AO6" s="70"/>
       <c r="AP6" s="70"/>
@@ -48156,9 +46854,7 @@
       <c r="AH7" s="70"/>
       <c r="AI7" s="70"/>
       <c r="AJ7" s="70"/>
-      <c r="AM7" s="70" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AM7" s="70"/>
       <c r="AN7" s="70"/>
       <c r="AO7" s="70"/>
       <c r="AP7" s="70"/>
@@ -48298,9 +46994,7 @@
       <c r="AH8" s="70"/>
       <c r="AI8" s="70"/>
       <c r="AJ8" s="70"/>
-      <c r="AM8" s="70" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AM8" s="70"/>
       <c r="AN8" s="70"/>
       <c r="AO8" s="70"/>
       <c r="AP8" s="70"/>
@@ -48651,8 +47345,8 @@
   <dimension ref="A1:EJ8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2:O8"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48833,9 +47527,7 @@
       <c r="N1" s="66" t="s">
         <v>520</v>
       </c>
-      <c r="O1" s="203" t="s">
-        <v>2280</v>
-      </c>
+      <c r="O1" s="203"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -48940,9 +47632,7 @@
       <c r="N2" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -48966,9 +47656,7 @@
       <c r="N3" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="27"/>
@@ -49028,9 +47716,6 @@
       </c>
       <c r="N4" s="1" t="s">
         <v>1394</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>2282</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -49154,9 +47839,7 @@
       <c r="N5" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -49179,9 +47862,7 @@
       <c r="N6" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -49199,9 +47880,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -49224,9 +47903,7 @@
       <c r="N8" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="O8" s="8"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -49244,11 +47921,9 @@
   <sheetPr codeName="SERV25_ReleaseCashflows">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -49266,7 +47941,7 @@
     <col min="14" max="14" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="64" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="64" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -49309,11 +47984,8 @@
       <c r="N1" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="O1" s="64" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -49356,74 +48028,53 @@
       <c r="N2" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -49444,9 +48095,7 @@
   </sheetPr>
   <dimension ref="A1:EJ8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -49596,9 +48245,7 @@
       <c r="D1" s="141" t="s">
         <v>2095</v>
       </c>
-      <c r="E1" s="141" t="s">
-        <v>2280</v>
-      </c>
+      <c r="E1" s="141"/>
       <c r="F1" s="141"/>
       <c r="G1" s="141"/>
       <c r="H1" s="141"/>
@@ -49683,9 +48330,7 @@
       <c r="C2" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="I2" s="8"/>
@@ -49706,9 +48351,7 @@
       <c r="C3" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="31"/>
       <c r="G3" s="8"/>
       <c r="H3" s="31"/>
@@ -49745,9 +48388,6 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>2096</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>2282</v>
       </c>
       <c r="J4" s="146"/>
       <c r="K4" s="146"/>
@@ -49861,9 +48501,7 @@
       <c r="C5" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="I5" s="8"/>
@@ -49884,9 +48522,7 @@
       <c r="C6" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="I6" s="8"/>
@@ -49907,9 +48543,7 @@
       <c r="C7" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="I7" s="8"/>
@@ -49930,9 +48564,7 @@
       <c r="C8" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="I8" s="8"/>
@@ -49959,11 +48591,9 @@
   <sheetPr codeName="AMCH11_AddFacility">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX8"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="AU23" sqref="AU23"/>
-    </sheetView>
+    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50017,7 +48647,7 @@
     <col min="49" max="49" width="18.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -50165,11 +48795,8 @@
       <c r="AW1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AX1" s="2" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -50182,11 +48809,8 @@
       <c r="AJ2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -50199,11 +48823,8 @@
       <c r="AJ3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AX3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -50216,11 +48837,8 @@
       <c r="AJ4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AX4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:49" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -50368,11 +48986,8 @@
       <c r="AW5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AX5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -50514,22 +49129,16 @@
       <c r="AU6" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="AX6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AX7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -50541,9 +49150,6 @@
       </c>
       <c r="AJ8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -50562,11 +49168,11 @@
   <sheetPr codeName="SERV29_PaymentFees">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BU13"/>
+  <dimension ref="A1:BT13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BU2" sqref="BU2:BU10"/>
+      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50636,7 +49242,7 @@
     <col min="72" max="72" width="23.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
@@ -50853,11 +49459,8 @@
       <c r="BT1" s="122" t="s">
         <v>646</v>
       </c>
-      <c r="BU1" s="122" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:73" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -51038,11 +49641,8 @@
       <c r="BP2" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="BU2" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -51250,11 +49850,8 @@
       <c r="BT3" s="1">
         <v>1000</v>
       </c>
-      <c r="BU3" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -51308,11 +49905,8 @@
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
       <c r="BL4" s="8"/>
-      <c r="BU4" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -51342,11 +49936,8 @@
       <c r="AK5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BU5" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -51545,11 +50136,8 @@
       <c r="BT6" s="1">
         <v>1000</v>
       </c>
-      <c r="BU6" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -51560,11 +50148,8 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="AK7" s="8"/>
-      <c r="BU7" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -51745,11 +50330,8 @@
       <c r="BP8" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="BU8" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -51933,11 +50515,8 @@
       <c r="BL9" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="BU9" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -52121,11 +50700,8 @@
       <c r="BL10" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="BU10" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="C11" s="71"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -52134,7 +50710,7 @@
       <c r="BJ11" s="9"/>
       <c r="BK11" s="69"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="AS12" s="73"/>
       <c r="AT12" s="73"/>
       <c r="AV12" s="71"/>
@@ -52144,7 +50720,7 @@
       <c r="AZ12" s="71"/>
       <c r="BA12" s="71"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
       <c r="AS13" s="73"/>
       <c r="AT13" s="73"/>
       <c r="AV13" s="71"/>
@@ -52170,11 +50746,9 @@
   <sheetPr codeName="SERV30_AdminFeePayment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S8"/>
-    </sheetView>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -52198,7 +50772,7 @@
     <col min="18" max="18" width="20.7109375" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="122" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
@@ -52253,11 +50827,8 @@
       <c r="R1" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="S1" s="122" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -52271,11 +50842,8 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="1"/>
-      <c r="S2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -52330,11 +50898,8 @@
       <c r="R3" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="S3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -52352,11 +50917,8 @@
       <c r="O4" s="8"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -52374,11 +50936,8 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="S5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -52433,11 +50992,8 @@
       <c r="R6" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="S6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -52452,11 +51008,8 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="S7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -52474,11 +51027,8 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="S8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q10" s="68"/>
     </row>
   </sheetData>
@@ -52499,9 +51049,7 @@
   </sheetPr>
   <dimension ref="A1:CN14"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -52628,9 +51176,7 @@
       <c r="V1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>2280</v>
-      </c>
+      <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -52729,9 +51275,7 @@
       <c r="S2" s="8"/>
       <c r="T2" s="7"/>
       <c r="U2" s="8"/>
-      <c r="W2" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="W2" s="8"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
@@ -52813,9 +51357,7 @@
       <c r="V3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="W3" s="8"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -52858,9 +51400,7 @@
       <c r="S4" s="8"/>
       <c r="T4" s="7"/>
       <c r="U4" s="8"/>
-      <c r="W4" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="W4" s="8"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -52928,9 +51468,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="7"/>
       <c r="U5" s="8"/>
-      <c r="W5" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="W5" s="8"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -52975,9 +51513,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
-      <c r="W6" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="W6" s="8"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -53016,9 +51552,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="7"/>
       <c r="U7" s="8"/>
-      <c r="W7" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="W7" s="8"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -53061,9 +51595,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
-      <c r="W8" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="W8" s="8"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -53121,9 +51653,7 @@
   </sheetPr>
   <dimension ref="A1:BQ16"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y8"/>
-    </sheetView>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -53263,9 +51793,7 @@
       <c r="X1" s="5" t="s">
         <v>2180</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>2280</v>
-      </c>
+      <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
@@ -53340,9 +51868,6 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -53373,9 +51898,6 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -53406,9 +51928,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="1" t="s">
-        <v>2282</v>
-      </c>
+      <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -53469,9 +51989,6 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="Y5" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -53502,9 +52019,6 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -53535,9 +52049,6 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="1" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="8" spans="1:69" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
@@ -53611,9 +52122,6 @@
       </c>
       <c r="X8" s="15" t="s">
         <v>2182</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
@@ -53643,9 +52151,7 @@
   </sheetPr>
   <dimension ref="A1:CY14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AH8"/>
-    </sheetView>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -53807,9 +52313,7 @@
       <c r="AG1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>2280</v>
-      </c>
+      <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
@@ -53920,9 +52424,7 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
-      <c r="AH2" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AH2" s="8"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
@@ -54037,9 +52539,7 @@
       <c r="AG3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH3" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AH3" s="8"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
@@ -54092,9 +52592,7 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
-      <c r="AH4" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AH4" s="8"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
@@ -54173,9 +52671,7 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="8"/>
-      <c r="AH5" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AH5" s="8"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
@@ -54232,9 +52728,7 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
-      <c r="AH6" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AH6" s="8"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
@@ -54285,9 +52779,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="8"/>
-      <c r="AH7" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AH7" s="8"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
@@ -54340,9 +52832,7 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="8"/>
-      <c r="AH8" s="8" t="s">
-        <v>2282</v>
-      </c>
+      <c r="AH8" s="8"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
@@ -54386,11 +52876,9 @@
   <sheetPr codeName="SYND02_Primary_Allocation">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
-    </sheetView>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -54428,7 +52916,7 @@
     <col min="32" max="32" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -54523,11 +53011,8 @@
       <c r="AF1" s="216" t="s">
         <v>744</v>
       </c>
-      <c r="AG1" s="216" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -54540,11 +53025,8 @@
       <c r="F2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="U2" s="22"/>
-      <c r="AG2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -54557,11 +53039,8 @@
       <c r="F3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="U3" s="22"/>
-      <c r="AG3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -54574,11 +53053,8 @@
       <c r="F4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="U4" s="22"/>
-      <c r="AG4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:32" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -54672,11 +53148,8 @@
       <c r="AF5" s="12" t="s">
         <v>876</v>
       </c>
-      <c r="AG5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -54691,11 +53164,8 @@
       <c r="F6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="AG6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -54708,11 +53178,8 @@
       <c r="F7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="U7" s="22"/>
-      <c r="AG7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -54724,11 +53191,8 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="AG8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>944</v>
       </c>
@@ -54749,10 +53213,10 @@
   <sheetPr codeName="SYND05_UpfrontFee_Payment">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54779,7 +53243,7 @@
     <col min="20" max="20" width="18.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -54840,11 +53304,8 @@
       <c r="T1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="216" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>26</v>
       </c>
@@ -54857,11 +53318,8 @@
       <c r="P2" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="U2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -54874,11 +53332,8 @@
       <c r="P3" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="U3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -54891,11 +53346,8 @@
       <c r="P4" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="U4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -54956,11 +53408,8 @@
       <c r="T5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="U5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -54976,22 +53425,16 @@
       <c r="P6" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="U6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -55003,9 +53446,6 @@
       </c>
       <c r="P8" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="U8" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -55024,11 +53464,9 @@
   <sheetPr codeName="TDP_ORIG03Customer">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CS12"/>
+  <dimension ref="A1:CR12"/>
   <sheetViews>
-    <sheetView topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CT10" sqref="CT10"/>
-    </sheetView>
+    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -55116,7 +53554,7 @@
     <col min="96" max="96" width="34.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -55405,11 +53843,8 @@
       <c r="CR1" s="5" t="s">
         <v>1488</v>
       </c>
-      <c r="CS1" s="24" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -55695,11 +54130,8 @@
       <c r="CR2" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS2" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -55985,11 +54417,8 @@
       <c r="CR3" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS3" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -56275,11 +54704,8 @@
       <c r="CR4" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS4" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -56565,11 +54991,8 @@
       <c r="CR5" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS5" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -56855,11 +55278,8 @@
       <c r="CR6" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS6" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -57145,11 +55565,8 @@
       <c r="CR7" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS7" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -57435,11 +55852,8 @@
       <c r="CR8" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS8" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -57725,11 +56139,8 @@
       <c r="CR9" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS9" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -58010,11 +56421,8 @@
       <c r="CR10" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS10" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -58300,11 +56708,8 @@
       <c r="CR11" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CS11" s="7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -58592,9 +56997,6 @@
       </c>
       <c r="CR12" s="7" t="s">
         <v>1539</v>
-      </c>
-      <c r="CS12" s="7" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -58615,9 +57017,7 @@
   </sheetPr>
   <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -58672,7 +57072,7 @@
     <col min="52" max="52" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="219" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" s="219" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
@@ -58829,22 +57229,16 @@
       <c r="AZ1" s="223" t="s">
         <v>271</v>
       </c>
-      <c r="BA1" s="219" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" s="60">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BA2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="225">
         <v>2</v>
       </c>
@@ -58854,33 +57248,24 @@
       <c r="AY3" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="BA3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="225">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BA4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="225">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BA5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:52" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="225">
         <v>5</v>
       </c>
@@ -59013,22 +57398,16 @@
       <c r="AZ6" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BA6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="225">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BA7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="225">
         <v>7</v>
       </c>
@@ -59038,11 +57417,8 @@
       <c r="P8" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="BA8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:52" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="225">
         <v>8</v>
       </c>
@@ -59165,9 +57541,6 @@
       </c>
       <c r="AZ9" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="24" spans="53:53" x14ac:dyDescent="0.2">
@@ -59192,11 +57565,9 @@
   <sheetPr codeName="API_BaseRates">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -59209,7 +57580,7 @@
     <col min="19" max="22" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -59276,88 +57647,64 @@
       <c r="V1" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="W4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -59408,9 +57755,6 @@
       </c>
       <c r="U9" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="W9" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -59429,11 +57773,9 @@
   <sheetPr codeName="API_FXRates">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -59444,7 +57786,7 @@
     <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -59460,88 +57802,64 @@
       <c r="E1" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -59556,9 +57874,6 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -59577,11 +57892,9 @@
   <sheetPr codeName="API_HolidayCalendar">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -59595,7 +57908,7 @@
     <col min="14" max="16" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -59644,88 +57957,64 @@
       <c r="P1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -59755,9 +58044,6 @@
       </c>
       <c r="O9" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>
